--- a/cbrunner/Parameters/Parameters_ByBGCZ.xlsx
+++ b/cbrunner/Parameters/Parameters_ByBGCZ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C8E7A6-9579-422B-8B71-33C5113345AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5433DAC6-5785-4BEB-8879-0CB7AB2B3278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -148,18 +148,12 @@
     <t>Pile Burn Rate</t>
   </si>
   <si>
-    <t>Harvest Po Sat</t>
-  </si>
-  <si>
     <t>Harvest Po Inf</t>
   </si>
   <si>
     <t>Harvest Po Shape</t>
   </si>
   <si>
-    <t>Disease Po Sat</t>
-  </si>
-  <si>
     <t>Disease Po Inf</t>
   </si>
   <si>
@@ -172,9 +166,6 @@
     <t>Disease Sev Beta</t>
   </si>
   <si>
-    <t>Frost Po Sat</t>
-  </si>
-  <si>
     <t>Frost Po Inf</t>
   </si>
   <si>
@@ -187,9 +178,6 @@
     <t>Frost Sev Beta</t>
   </si>
   <si>
-    <t>Wind Po Sat</t>
-  </si>
-  <si>
     <t>Wind Po Inf</t>
   </si>
   <si>
@@ -221,6 +209,24 @@
   </si>
   <si>
     <t>GM Age_o</t>
+  </si>
+  <si>
+    <t>Disease Po Sat Pct</t>
+  </si>
+  <si>
+    <t>Wind Po Sat Pct</t>
+  </si>
+  <si>
+    <t>Frost Po Sat Pct</t>
+  </si>
+  <si>
+    <t>Harvest Po Sat Pct</t>
+  </si>
+  <si>
+    <t>NetGrowth Phase Shift Age</t>
+  </si>
+  <si>
+    <t>NetGrowth Phase Shift Factor</t>
   </si>
 </sst>
 </file>
@@ -262,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -277,9 +283,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -612,13 +615,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK17"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,13 +632,13 @@
     <col min="8" max="8" width="8.109375" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="7"/>
-    <col min="21" max="21" width="8.88671875" style="9" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" style="9"/>
+    <col min="16" max="16" width="11" style="6" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="8" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" style="8"/>
     <col min="36" max="37" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -673,83 +676,89 @@
         <v>36</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="R1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="X1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AD1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AE1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AF1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AG1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AH1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AI1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AK1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>61</v>
+      <c r="AL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
@@ -786,83 +795,89 @@
         <v>0</v>
       </c>
       <c r="M2" s="3">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="N2" s="3">
         <v>300</v>
       </c>
       <c r="O2" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P2" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Q2" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>125</v>
+      </c>
+      <c r="R2" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S2" s="9">
+        <v>8</v>
+      </c>
+      <c r="T2" s="9">
+        <v>2</v>
+      </c>
+      <c r="U2" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="V2" s="9">
+        <v>5</v>
+      </c>
+      <c r="W2" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X2" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA2" s="9">
         <v>90</v>
       </c>
-      <c r="R2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="S2" s="10">
-        <v>3.75</v>
-      </c>
-      <c r="T2" s="10">
-        <v>6.25</v>
-      </c>
-      <c r="U2" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="V2" s="10">
-        <v>5</v>
-      </c>
-      <c r="W2" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="X2" s="10">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="10">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AA2" s="10">
-        <v>90</v>
-      </c>
-      <c r="AB2" s="10">
+      <c r="AB2" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AC2" s="9">
         <v>1</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AD2" s="9">
         <v>9</v>
       </c>
-      <c r="AE2" s="15">
-        <v>1865</v>
-      </c>
-      <c r="AF2" s="15">
-        <v>1990</v>
-      </c>
-      <c r="AG2" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AH2" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="AI2" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="AJ2" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK2" s="13">
-        <v>75</v>
+      <c r="AE2" s="14">
+        <v>1945</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>2021</v>
+      </c>
+      <c r="AG2" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="AH2" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI2" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="12">
+        <v>150</v>
+      </c>
+      <c r="AL2" s="15">
+        <v>60</v>
+      </c>
+      <c r="AM2" s="13">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
@@ -899,83 +914,89 @@
         <v>0.95</v>
       </c>
       <c r="M3" s="3">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="N3" s="3">
         <v>300</v>
       </c>
       <c r="O3" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P3" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Q3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>125</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S3" s="9">
+        <v>8</v>
+      </c>
+      <c r="T3" s="9">
+        <v>2</v>
+      </c>
+      <c r="U3" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="V3" s="9">
+        <v>5</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X3" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA3" s="9">
         <v>90</v>
       </c>
-      <c r="R3" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="S3" s="10">
-        <v>3.75</v>
-      </c>
-      <c r="T3" s="10">
-        <v>6.25</v>
-      </c>
-      <c r="U3" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="V3" s="10">
-        <v>5</v>
-      </c>
-      <c r="W3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="X3" s="10">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AA3" s="10">
-        <v>90</v>
-      </c>
-      <c r="AB3" s="10">
+      <c r="AB3" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC3" s="10">
+      <c r="AC3" s="9">
         <v>1</v>
       </c>
-      <c r="AD3" s="10">
+      <c r="AD3" s="9">
         <v>9</v>
       </c>
-      <c r="AE3" s="15">
-        <v>1865</v>
-      </c>
-      <c r="AF3" s="15">
-        <v>1990</v>
-      </c>
-      <c r="AG3" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AH3" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="AI3" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="AJ3" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK3" s="13">
-        <v>75</v>
+      <c r="AE3" s="14">
+        <v>1945</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>2021</v>
+      </c>
+      <c r="AG3" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="AH3" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI3" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="12">
+        <v>150</v>
+      </c>
+      <c r="AL3" s="15">
+        <v>60</v>
+      </c>
+      <c r="AM3" s="13">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
@@ -1012,83 +1033,89 @@
         <v>0.95</v>
       </c>
       <c r="M4" s="3">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="N4" s="3">
         <v>300</v>
       </c>
       <c r="O4" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P4" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Q4" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>125</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S4" s="9">
+        <v>8</v>
+      </c>
+      <c r="T4" s="9">
+        <v>2</v>
+      </c>
+      <c r="U4" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="V4" s="9">
+        <v>5</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X4" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA4" s="9">
         <v>90</v>
       </c>
-      <c r="R4" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="S4" s="10">
-        <v>3.75</v>
-      </c>
-      <c r="T4" s="10">
-        <v>6.25</v>
-      </c>
-      <c r="U4" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="V4" s="10">
-        <v>5</v>
-      </c>
-      <c r="W4" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="X4" s="10">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="10">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AA4" s="10">
-        <v>90</v>
-      </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="9">
         <v>1</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="9">
         <v>9</v>
       </c>
-      <c r="AE4" s="15">
-        <v>1865</v>
-      </c>
-      <c r="AF4" s="15">
-        <v>1990</v>
-      </c>
-      <c r="AG4" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AH4" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="AI4" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="AJ4" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK4" s="13">
-        <v>75</v>
+      <c r="AE4" s="14">
+        <v>1945</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>2021</v>
+      </c>
+      <c r="AG4" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="AH4" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI4" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="12">
+        <v>150</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>60</v>
+      </c>
+      <c r="AM4" s="13">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
@@ -1125,83 +1152,89 @@
         <v>1</v>
       </c>
       <c r="M5" s="3">
-        <v>0.04</v>
+        <v>8</v>
       </c>
       <c r="N5" s="3">
         <v>400</v>
       </c>
       <c r="O5" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P5" s="6">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="Q5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="9">
         <v>125</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S5" s="9">
+        <v>8</v>
+      </c>
+      <c r="T5" s="9">
+        <v>2</v>
+      </c>
+      <c r="U5" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="V5" s="9">
+        <v>5</v>
+      </c>
+      <c r="W5" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="X5" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>125</v>
+      </c>
+      <c r="AB5" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="S5" s="10">
-        <v>8</v>
-      </c>
-      <c r="T5" s="10">
-        <v>2</v>
-      </c>
-      <c r="U5" s="8">
-        <v>4.4999999999999999E-4</v>
-      </c>
-      <c r="V5" s="10">
-        <v>5</v>
-      </c>
-      <c r="W5" s="10">
-        <v>0.85</v>
-      </c>
-      <c r="X5" s="10">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>125</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>8</v>
-      </c>
-      <c r="AD5" s="10">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="15">
+      <c r="AC5" s="9">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="14">
         <v>1865</v>
       </c>
-      <c r="AF5" s="15">
+      <c r="AF5" s="14">
         <v>1990</v>
       </c>
-      <c r="AG5" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AH5" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="AI5" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="AJ5" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK5" s="13">
-        <v>75</v>
+      <c r="AG5" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="AH5" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI5" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="12">
+        <v>150</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>60</v>
+      </c>
+      <c r="AM5" s="15">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3">
@@ -1238,83 +1271,89 @@
         <v>0.95</v>
       </c>
       <c r="M6" s="3">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="N6" s="3">
         <v>300</v>
       </c>
       <c r="O6" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P6" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Q6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>125</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S6" s="9">
+        <v>8</v>
+      </c>
+      <c r="T6" s="9">
+        <v>2</v>
+      </c>
+      <c r="U6" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="V6" s="9">
+        <v>5</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X6" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA6" s="9">
         <v>90</v>
       </c>
-      <c r="R6" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="10">
+      <c r="AB6" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AC6" s="9">
         <v>3</v>
       </c>
-      <c r="T6" s="10">
+      <c r="AD6" s="9">
         <v>7</v>
       </c>
-      <c r="U6" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="V6" s="10">
-        <v>5</v>
-      </c>
-      <c r="W6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="X6" s="10">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="10">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>90</v>
-      </c>
-      <c r="AB6" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AC6" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="10">
-        <v>7</v>
-      </c>
-      <c r="AE6" s="15">
+      <c r="AE6" s="14">
         <v>1865</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AF6" s="14">
         <v>1990</v>
       </c>
-      <c r="AG6" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AH6" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="AI6" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="AJ6" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK6" s="13">
-        <v>75</v>
+      <c r="AG6" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="AH6" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI6" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="12">
+        <v>150</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>60</v>
+      </c>
+      <c r="AM6" s="13">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
@@ -1351,83 +1390,89 @@
         <v>0.35</v>
       </c>
       <c r="M7" s="3">
-        <v>0.04</v>
+        <v>8</v>
       </c>
       <c r="N7" s="3">
         <v>400</v>
       </c>
       <c r="O7" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P7" s="6">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>125</v>
-      </c>
-      <c r="R7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>100</v>
+      </c>
+      <c r="R7" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S7" s="9">
+        <v>8</v>
+      </c>
+      <c r="T7" s="9">
+        <v>2</v>
+      </c>
+      <c r="U7" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="V7" s="9">
+        <v>5</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="X7" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>100</v>
+      </c>
+      <c r="AB7" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="S7" s="10">
-        <v>8</v>
-      </c>
-      <c r="T7" s="10">
-        <v>2</v>
-      </c>
-      <c r="U7" s="8">
-        <v>4.4999999999999999E-4</v>
-      </c>
-      <c r="V7" s="10">
-        <v>5</v>
-      </c>
-      <c r="W7" s="10">
-        <v>0.85</v>
-      </c>
-      <c r="X7" s="10">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>125</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>8</v>
-      </c>
-      <c r="AD7" s="10">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="15">
-        <v>1865</v>
-      </c>
-      <c r="AF7" s="15">
-        <v>1990</v>
-      </c>
-      <c r="AG7" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AH7" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="AI7" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="AJ7" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK7" s="13">
-        <v>75</v>
+      <c r="AC7" s="9">
+        <v>8</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>1915</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>2011</v>
+      </c>
+      <c r="AG7" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="AH7" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI7" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="12">
+        <v>150</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>60</v>
+      </c>
+      <c r="AM7" s="15">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3">
@@ -1464,83 +1509,89 @@
         <v>0.8</v>
       </c>
       <c r="M8" s="3">
-        <v>0.08</v>
+        <v>2</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
       </c>
       <c r="O8" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P8" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Q8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>100</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S8" s="9">
+        <v>8</v>
+      </c>
+      <c r="T8" s="9">
+        <v>2</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="V8" s="9">
+        <v>100</v>
+      </c>
+      <c r="W8" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="X8" s="9">
+        <v>8</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA8" s="9">
         <v>90</v>
       </c>
-      <c r="R8" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="S8" s="10">
+      <c r="AB8" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AC8" s="9">
         <v>3.75</v>
       </c>
-      <c r="T8" s="10">
+      <c r="AD8" s="9">
         <v>6.25</v>
       </c>
-      <c r="U8" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="V8" s="10">
-        <v>5</v>
-      </c>
-      <c r="W8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="X8" s="10">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="10">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AA8" s="10">
-        <v>90</v>
-      </c>
-      <c r="AB8" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AC8" s="10">
+      <c r="AE8" s="14">
+        <v>1990</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>2021</v>
+      </c>
+      <c r="AG8" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="AH8" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="AI8" s="15">
         <v>1</v>
       </c>
-      <c r="AD8" s="10">
-        <v>9</v>
-      </c>
-      <c r="AE8" s="15">
-        <v>1865</v>
-      </c>
-      <c r="AF8" s="15">
-        <v>1990</v>
-      </c>
-      <c r="AG8" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AH8" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="AI8" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="AJ8" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK8" s="13">
-        <v>75</v>
+      <c r="AJ8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="12">
+        <v>150</v>
+      </c>
+      <c r="AL8" s="15">
+        <v>60</v>
+      </c>
+      <c r="AM8" s="13">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3">
@@ -1577,83 +1628,89 @@
         <v>0.8</v>
       </c>
       <c r="M9" s="3">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="N9" s="3">
         <v>400</v>
       </c>
       <c r="O9" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P9" s="6">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="Q9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="9">
         <v>125</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S9" s="9">
+        <v>8</v>
+      </c>
+      <c r="T9" s="9">
+        <v>2</v>
+      </c>
+      <c r="U9" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="V9" s="9">
+        <v>5</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X9" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>125</v>
+      </c>
+      <c r="AB9" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="S9" s="10">
-        <v>2</v>
-      </c>
-      <c r="T9" s="10">
-        <v>8</v>
-      </c>
-      <c r="U9" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="V9" s="10">
-        <v>5</v>
-      </c>
-      <c r="W9" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="X9" s="10">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="10">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AA9" s="10">
-        <v>125</v>
-      </c>
-      <c r="AB9" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AC9" s="10">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="10">
-        <v>8</v>
-      </c>
-      <c r="AE9" s="15">
+      <c r="AC9" s="9">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>8</v>
+      </c>
+      <c r="AE9" s="14">
         <v>1865</v>
       </c>
-      <c r="AF9" s="15">
-        <v>1990</v>
-      </c>
-      <c r="AG9" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AH9" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="AI9" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="AJ9" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK9" s="13">
-        <v>75</v>
+      <c r="AF9" s="14">
+        <v>1975</v>
+      </c>
+      <c r="AG9" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="AH9" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI9" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="12">
+        <v>150</v>
+      </c>
+      <c r="AL9" s="15">
+        <v>60</v>
+      </c>
+      <c r="AM9" s="13">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3">
@@ -1690,83 +1747,89 @@
         <v>1</v>
       </c>
       <c r="M10" s="3">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="N10" s="3">
         <v>300</v>
       </c>
       <c r="O10" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P10" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Q10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>125</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S10" s="9">
+        <v>8</v>
+      </c>
+      <c r="T10" s="9">
+        <v>2</v>
+      </c>
+      <c r="U10" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="V10" s="9">
+        <v>5</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X10" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA10" s="9">
         <v>90</v>
       </c>
-      <c r="R10" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="10">
-        <v>3.75</v>
-      </c>
-      <c r="T10" s="10">
-        <v>6.25</v>
-      </c>
-      <c r="U10" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="V10" s="10">
-        <v>5</v>
-      </c>
-      <c r="W10" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="X10" s="10">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="10">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AA10" s="10">
-        <v>90</v>
-      </c>
-      <c r="AB10" s="10">
+      <c r="AB10" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC10" s="10">
+      <c r="AC10" s="9">
         <v>1</v>
       </c>
-      <c r="AD10" s="10">
+      <c r="AD10" s="9">
         <v>9</v>
       </c>
-      <c r="AE10" s="15">
-        <v>1865</v>
-      </c>
-      <c r="AF10" s="15">
-        <v>1990</v>
-      </c>
-      <c r="AG10" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AH10" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="AI10" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="AJ10" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK10" s="13">
-        <v>75</v>
+      <c r="AE10" s="14">
+        <v>1945</v>
+      </c>
+      <c r="AF10" s="14">
+        <v>2021</v>
+      </c>
+      <c r="AG10" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="AH10" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI10" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="12">
+        <v>150</v>
+      </c>
+      <c r="AL10" s="15">
+        <v>60</v>
+      </c>
+      <c r="AM10" s="13">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3">
@@ -1803,83 +1866,89 @@
         <v>0.95</v>
       </c>
       <c r="M11" s="3">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="N11" s="3">
         <v>300</v>
       </c>
       <c r="O11" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P11" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Q11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>125</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S11" s="9">
+        <v>8</v>
+      </c>
+      <c r="T11" s="9">
+        <v>2</v>
+      </c>
+      <c r="U11" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="V11" s="9">
+        <v>5</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X11" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA11" s="9">
         <v>90</v>
       </c>
-      <c r="R11" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="S11" s="10">
+      <c r="AB11" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AC11" s="9">
         <v>3</v>
       </c>
-      <c r="T11" s="10">
+      <c r="AD11" s="9">
         <v>7</v>
       </c>
-      <c r="U11" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="V11" s="10">
-        <v>5</v>
-      </c>
-      <c r="W11" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="X11" s="10">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="10">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AA11" s="10">
-        <v>90</v>
-      </c>
-      <c r="AB11" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AC11" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD11" s="10">
-        <v>7</v>
-      </c>
-      <c r="AE11" s="15">
+      <c r="AE11" s="14">
         <v>1865</v>
       </c>
-      <c r="AF11" s="15">
+      <c r="AF11" s="14">
         <v>1990</v>
       </c>
-      <c r="AG11" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AH11" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="AI11" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="AJ11" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK11" s="13">
-        <v>75</v>
+      <c r="AG11" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="AH11" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI11" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="12">
+        <v>150</v>
+      </c>
+      <c r="AL11" s="15">
+        <v>60</v>
+      </c>
+      <c r="AM11" s="13">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3">
@@ -1916,83 +1985,89 @@
         <v>0.35</v>
       </c>
       <c r="M12" s="3">
-        <v>0.04</v>
+        <v>8</v>
       </c>
       <c r="N12" s="3">
         <v>400</v>
       </c>
       <c r="O12" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P12" s="6">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="Q12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>125</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S12" s="9">
+        <v>8</v>
+      </c>
+      <c r="T12" s="9">
+        <v>2</v>
+      </c>
+      <c r="U12" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="V12" s="9">
+        <v>5</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="X12" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA12" s="9">
         <v>175</v>
       </c>
-      <c r="R12" s="10">
+      <c r="AB12" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="S12" s="10">
-        <v>8</v>
-      </c>
-      <c r="T12" s="10">
-        <v>2</v>
-      </c>
-      <c r="U12" s="8">
-        <v>4.4999999999999999E-4</v>
-      </c>
-      <c r="V12" s="10">
-        <v>5</v>
-      </c>
-      <c r="W12" s="10">
-        <v>0.85</v>
-      </c>
-      <c r="X12" s="10">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="10">
-        <v>4</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="AA12" s="10">
-        <v>175</v>
-      </c>
-      <c r="AB12" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AC12" s="10">
-        <v>8</v>
-      </c>
-      <c r="AD12" s="10">
-        <v>2</v>
-      </c>
-      <c r="AE12" s="15">
+      <c r="AC12" s="9">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="14">
         <v>1865</v>
       </c>
-      <c r="AF12" s="15">
+      <c r="AF12" s="14">
         <v>1990</v>
       </c>
-      <c r="AG12" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AH12" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="AI12" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>75</v>
+      <c r="AG12" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="AH12" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI12" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="12">
+        <v>150</v>
+      </c>
+      <c r="AL12" s="15">
+        <v>60</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3">
@@ -2029,83 +2104,89 @@
         <v>0.95</v>
       </c>
       <c r="M13" s="3">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="N13" s="3">
         <v>300</v>
       </c>
       <c r="O13" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P13" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Q13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>125</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S13" s="9">
+        <v>8</v>
+      </c>
+      <c r="T13" s="9">
+        <v>2</v>
+      </c>
+      <c r="U13" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="V13" s="9">
+        <v>5</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X13" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA13" s="9">
         <v>90</v>
       </c>
-      <c r="R13" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="S13" s="10">
-        <v>3.75</v>
-      </c>
-      <c r="T13" s="10">
-        <v>6.25</v>
-      </c>
-      <c r="U13" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="V13" s="10">
-        <v>5</v>
-      </c>
-      <c r="W13" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="X13" s="10">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="10">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AA13" s="10">
-        <v>90</v>
-      </c>
-      <c r="AB13" s="10">
+      <c r="AB13" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC13" s="10">
+      <c r="AC13" s="9">
         <v>1</v>
       </c>
-      <c r="AD13" s="10">
+      <c r="AD13" s="9">
         <v>9</v>
       </c>
-      <c r="AE13" s="15">
-        <v>1865</v>
-      </c>
-      <c r="AF13" s="15">
-        <v>1990</v>
-      </c>
-      <c r="AG13" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AH13" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="AI13" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="AJ13" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK13" s="13">
-        <v>75</v>
+      <c r="AE13" s="14">
+        <v>1945</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>2021</v>
+      </c>
+      <c r="AG13" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="AH13" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI13" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="12">
+        <v>150</v>
+      </c>
+      <c r="AL13" s="15">
+        <v>60</v>
+      </c>
+      <c r="AM13" s="13">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3">
@@ -2142,83 +2223,89 @@
         <v>1</v>
       </c>
       <c r="M14" s="3">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>300</v>
       </c>
       <c r="O14" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P14" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Q14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>125</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S14" s="9">
+        <v>8</v>
+      </c>
+      <c r="T14" s="9">
+        <v>2</v>
+      </c>
+      <c r="U14" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="V14" s="9">
+        <v>5</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X14" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA14" s="9">
         <v>90</v>
       </c>
-      <c r="R14" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="S14" s="10">
-        <v>3.75</v>
-      </c>
-      <c r="T14" s="10">
-        <v>6.25</v>
-      </c>
-      <c r="U14" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="V14" s="10">
-        <v>5</v>
-      </c>
-      <c r="W14" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="X14" s="10">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="10">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AA14" s="10">
-        <v>90</v>
-      </c>
-      <c r="AB14" s="10">
+      <c r="AB14" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC14" s="10">
+      <c r="AC14" s="9">
         <v>1</v>
       </c>
-      <c r="AD14" s="10">
+      <c r="AD14" s="9">
         <v>9</v>
       </c>
-      <c r="AE14" s="15">
-        <v>1865</v>
-      </c>
-      <c r="AF14" s="15">
-        <v>1990</v>
-      </c>
-      <c r="AG14" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AH14" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="AI14" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="AJ14" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>75</v>
+      <c r="AE14" s="14">
+        <v>1945</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>2021</v>
+      </c>
+      <c r="AG14" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="AH14" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI14" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="12">
+        <v>150</v>
+      </c>
+      <c r="AL14" s="15">
+        <v>60</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3">
@@ -2255,83 +2342,89 @@
         <v>0.95</v>
       </c>
       <c r="M15" s="3">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>300</v>
       </c>
       <c r="O15" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P15" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Q15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>125</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S15" s="9">
+        <v>8</v>
+      </c>
+      <c r="T15" s="9">
+        <v>2</v>
+      </c>
+      <c r="U15" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="V15" s="9">
+        <v>5</v>
+      </c>
+      <c r="W15" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X15" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA15" s="9">
         <v>90</v>
       </c>
-      <c r="R15" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="S15" s="10">
-        <v>3.75</v>
-      </c>
-      <c r="T15" s="10">
-        <v>6.25</v>
-      </c>
-      <c r="U15" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="V15" s="10">
-        <v>5</v>
-      </c>
-      <c r="W15" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="X15" s="10">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="10">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AA15" s="10">
-        <v>90</v>
-      </c>
-      <c r="AB15" s="10">
+      <c r="AB15" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC15" s="10">
+      <c r="AC15" s="9">
         <v>1</v>
       </c>
-      <c r="AD15" s="10">
+      <c r="AD15" s="9">
         <v>9</v>
       </c>
-      <c r="AE15" s="15">
-        <v>1865</v>
-      </c>
-      <c r="AF15" s="15">
-        <v>1990</v>
-      </c>
-      <c r="AG15" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AH15" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="AI15" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="AJ15" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK15" s="13">
-        <v>75</v>
+      <c r="AE15" s="14">
+        <v>1945</v>
+      </c>
+      <c r="AF15" s="14">
+        <v>2021</v>
+      </c>
+      <c r="AG15" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="AH15" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI15" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="12">
+        <v>150</v>
+      </c>
+      <c r="AL15" s="15">
+        <v>60</v>
+      </c>
+      <c r="AM15" s="13">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3">
@@ -2353,7 +2446,7 @@
         <v>100.408119761297</v>
       </c>
       <c r="H16" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" s="4">
         <v>1800</v>
@@ -2368,83 +2461,89 @@
         <v>0.95</v>
       </c>
       <c r="M16" s="3">
-        <v>0.12</v>
+        <v>8</v>
       </c>
       <c r="N16" s="3">
         <v>400</v>
       </c>
       <c r="O16" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P16" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Q16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>125</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S16" s="9">
+        <v>8</v>
+      </c>
+      <c r="T16" s="9">
+        <v>2</v>
+      </c>
+      <c r="U16" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="V16" s="9">
+        <v>5</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X16" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA16" s="9">
         <v>90</v>
       </c>
-      <c r="R16" s="10">
+      <c r="AB16" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="S16" s="10">
+      <c r="AC16" s="9">
         <v>3.75</v>
       </c>
-      <c r="T16" s="10">
+      <c r="AD16" s="9">
         <v>6.25</v>
       </c>
-      <c r="U16" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="V16" s="10">
-        <v>5</v>
-      </c>
-      <c r="W16" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="X16" s="10">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="10">
-        <v>8</v>
-      </c>
-      <c r="Z16" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AA16" s="10">
-        <v>90</v>
-      </c>
-      <c r="AB16" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AC16" s="10">
-        <v>3.75</v>
-      </c>
-      <c r="AD16" s="10">
-        <v>6.25</v>
-      </c>
-      <c r="AE16" s="15">
-        <v>1865</v>
-      </c>
-      <c r="AF16" s="15">
-        <v>1990</v>
-      </c>
-      <c r="AG16" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AH16" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="AI16" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>75</v>
+      <c r="AE16" s="14">
+        <v>1945</v>
+      </c>
+      <c r="AF16" s="14">
+        <v>2021</v>
+      </c>
+      <c r="AG16" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="AH16" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI16" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="12">
+        <v>150</v>
+      </c>
+      <c r="AL16" s="15">
+        <v>60</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3">
@@ -2481,79 +2580,85 @@
         <v>0.95</v>
       </c>
       <c r="M17" s="3">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="P17" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Q17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>125</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S17" s="9">
+        <v>8</v>
+      </c>
+      <c r="T17" s="9">
+        <v>2</v>
+      </c>
+      <c r="U17" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="V17" s="9">
+        <v>5</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X17" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AA17" s="9">
         <v>90</v>
       </c>
-      <c r="R17" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="S17" s="10">
-        <v>3.75</v>
-      </c>
-      <c r="T17" s="10">
-        <v>6.25</v>
-      </c>
-      <c r="U17" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="V17" s="10">
-        <v>5</v>
-      </c>
-      <c r="W17" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="X17" s="10">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="10">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AA17" s="10">
-        <v>90</v>
-      </c>
-      <c r="AB17" s="10">
+      <c r="AB17" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC17" s="10">
+      <c r="AC17" s="9">
         <v>1</v>
       </c>
-      <c r="AD17" s="10">
+      <c r="AD17" s="9">
         <v>9</v>
       </c>
-      <c r="AE17" s="15">
-        <v>1865</v>
-      </c>
-      <c r="AF17" s="15">
-        <v>1990</v>
-      </c>
-      <c r="AG17" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="AH17" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="AI17" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="AJ17" s="13">
-        <v>20</v>
-      </c>
-      <c r="AK17" s="13">
-        <v>75</v>
+      <c r="AE17" s="14">
+        <v>1945</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>2021</v>
+      </c>
+      <c r="AG17" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="AH17" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI17" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="12">
+        <v>150</v>
+      </c>
+      <c r="AL17" s="15">
+        <v>60</v>
+      </c>
+      <c r="AM17" s="13">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_ByBGCZ.xlsx
+++ b/cbrunner/Parameters/Parameters_ByBGCZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5433DAC6-5785-4BEB-8879-0CB7AB2B3278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B31305-74D0-4088-93A1-BD6C0AD7C8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -221,12 +221,6 @@
   </si>
   <si>
     <t>Harvest Po Sat Pct</t>
-  </si>
-  <si>
-    <t>NetGrowth Phase Shift Age</t>
-  </si>
-  <si>
-    <t>NetGrowth Phase Shift Factor</t>
   </si>
 </sst>
 </file>
@@ -618,10 +612,10 @@
   <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG10" sqref="AG10"/>
+      <selection pane="bottomRight" activeCell="AG3" sqref="AG3:AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,12 +744,6 @@
       <c r="AK1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -798,7 +786,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O2" s="3">
         <v>0.02</v>
@@ -813,10 +801,10 @@
         <v>0.01</v>
       </c>
       <c r="S2" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T2" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U2" s="7">
         <v>1E-3</v>
@@ -849,13 +837,13 @@
         <v>9</v>
       </c>
       <c r="AE2" s="14">
-        <v>1945</v>
+        <v>1865</v>
       </c>
       <c r="AF2" s="14">
         <v>2021</v>
       </c>
       <c r="AG2" s="15">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="AH2" s="15">
         <v>1.1000000000000001</v>
@@ -869,12 +857,8 @@
       <c r="AK2" s="12">
         <v>150</v>
       </c>
-      <c r="AL2" s="15">
-        <v>60</v>
-      </c>
-      <c r="AM2" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="13"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -917,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="N3" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O3" s="3">
         <v>0.02</v>
@@ -932,10 +916,10 @@
         <v>0.01</v>
       </c>
       <c r="S3" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T3" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U3" s="7">
         <v>1E-3</v>
@@ -968,13 +952,13 @@
         <v>9</v>
       </c>
       <c r="AE3" s="14">
-        <v>1945</v>
+        <v>1865</v>
       </c>
       <c r="AF3" s="14">
         <v>2021</v>
       </c>
       <c r="AG3" s="15">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="AH3" s="15">
         <v>1.1000000000000001</v>
@@ -988,12 +972,8 @@
       <c r="AK3" s="12">
         <v>150</v>
       </c>
-      <c r="AL3" s="15">
-        <v>60</v>
-      </c>
-      <c r="AM3" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="13"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -1036,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="N4" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O4" s="3">
         <v>0.02</v>
@@ -1051,10 +1031,10 @@
         <v>0.01</v>
       </c>
       <c r="S4" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T4" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U4" s="7">
         <v>1E-3</v>
@@ -1087,13 +1067,13 @@
         <v>9</v>
       </c>
       <c r="AE4" s="14">
-        <v>1945</v>
+        <v>1865</v>
       </c>
       <c r="AF4" s="14">
         <v>2021</v>
       </c>
       <c r="AG4" s="15">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="AH4" s="15">
         <v>1.1000000000000001</v>
@@ -1107,12 +1087,8 @@
       <c r="AK4" s="12">
         <v>150</v>
       </c>
-      <c r="AL4" s="15">
-        <v>60</v>
-      </c>
-      <c r="AM4" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="13"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
@@ -1170,10 +1146,10 @@
         <v>0.01</v>
       </c>
       <c r="S5" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T5" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U5" s="7">
         <v>1E-3</v>
@@ -1209,10 +1185,10 @@
         <v>1865</v>
       </c>
       <c r="AF5" s="14">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="AG5" s="15">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
       <c r="AH5" s="15">
         <v>1.1000000000000001</v>
@@ -1226,12 +1202,8 @@
       <c r="AK5" s="12">
         <v>150</v>
       </c>
-      <c r="AL5" s="15">
-        <v>60</v>
-      </c>
-      <c r="AM5" s="15">
-        <v>1</v>
-      </c>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
@@ -1274,7 +1246,7 @@
         <v>8</v>
       </c>
       <c r="N6" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O6" s="3">
         <v>0.02</v>
@@ -1289,10 +1261,10 @@
         <v>0.01</v>
       </c>
       <c r="S6" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T6" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U6" s="7">
         <v>1E-3</v>
@@ -1328,10 +1300,10 @@
         <v>1865</v>
       </c>
       <c r="AF6" s="14">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="AG6" s="15">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="AH6" s="15">
         <v>1.1000000000000001</v>
@@ -1345,12 +1317,8 @@
       <c r="AK6" s="12">
         <v>150</v>
       </c>
-      <c r="AL6" s="15">
-        <v>60</v>
-      </c>
-      <c r="AM6" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="13"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
@@ -1408,10 +1376,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="S7" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T7" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U7" s="7">
         <v>1E-3</v>
@@ -1444,13 +1412,13 @@
         <v>2</v>
       </c>
       <c r="AE7" s="14">
-        <v>1915</v>
+        <v>1865</v>
       </c>
       <c r="AF7" s="14">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="AG7" s="15">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
       <c r="AH7" s="15">
         <v>1.1000000000000001</v>
@@ -1464,12 +1432,8 @@
       <c r="AK7" s="12">
         <v>150</v>
       </c>
-      <c r="AL7" s="15">
-        <v>60</v>
-      </c>
-      <c r="AM7" s="15">
-        <v>1</v>
-      </c>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
@@ -1509,10 +1473,10 @@
         <v>0.8</v>
       </c>
       <c r="M8" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O8" s="3">
         <v>0.02</v>
@@ -1527,10 +1491,10 @@
         <v>0.01</v>
       </c>
       <c r="S8" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T8" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U8" s="7">
         <v>0.3</v>
@@ -1563,19 +1527,19 @@
         <v>6.25</v>
       </c>
       <c r="AE8" s="14">
-        <v>1990</v>
+        <v>1865</v>
       </c>
       <c r="AF8" s="14">
         <v>2021</v>
       </c>
       <c r="AG8" s="15">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="AH8" s="15">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI8" s="15">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ8" s="12">
         <v>0</v>
@@ -1583,12 +1547,8 @@
       <c r="AK8" s="12">
         <v>150</v>
       </c>
-      <c r="AL8" s="15">
-        <v>60</v>
-      </c>
-      <c r="AM8" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="13"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
@@ -1613,7 +1573,7 @@
         <v>140.73492133124211</v>
       </c>
       <c r="H9" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="4">
         <v>2100</v>
@@ -1646,10 +1606,10 @@
         <v>0.01</v>
       </c>
       <c r="S9" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T9" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U9" s="7">
         <v>1E-3</v>
@@ -1685,10 +1645,10 @@
         <v>1865</v>
       </c>
       <c r="AF9" s="14">
-        <v>1975</v>
+        <v>2021</v>
       </c>
       <c r="AG9" s="15">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="AH9" s="15">
         <v>1.1000000000000001</v>
@@ -1702,12 +1662,8 @@
       <c r="AK9" s="12">
         <v>150</v>
       </c>
-      <c r="AL9" s="15">
-        <v>60</v>
-      </c>
-      <c r="AM9" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="13"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
@@ -1750,7 +1706,7 @@
         <v>8</v>
       </c>
       <c r="N10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O10" s="3">
         <v>0.02</v>
@@ -1765,10 +1721,10 @@
         <v>0.01</v>
       </c>
       <c r="S10" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T10" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U10" s="7">
         <v>1E-3</v>
@@ -1801,13 +1757,13 @@
         <v>9</v>
       </c>
       <c r="AE10" s="14">
-        <v>1945</v>
+        <v>1865</v>
       </c>
       <c r="AF10" s="14">
         <v>2021</v>
       </c>
       <c r="AG10" s="15">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="AH10" s="15">
         <v>1.1000000000000001</v>
@@ -1821,12 +1777,8 @@
       <c r="AK10" s="12">
         <v>150</v>
       </c>
-      <c r="AL10" s="15">
-        <v>60</v>
-      </c>
-      <c r="AM10" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="13"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
@@ -1869,7 +1821,7 @@
         <v>8</v>
       </c>
       <c r="N11" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O11" s="3">
         <v>0.02</v>
@@ -1884,10 +1836,10 @@
         <v>0.01</v>
       </c>
       <c r="S11" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T11" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U11" s="7">
         <v>1E-3</v>
@@ -1923,10 +1875,10 @@
         <v>1865</v>
       </c>
       <c r="AF11" s="14">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="AG11" s="15">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="AH11" s="15">
         <v>1.1000000000000001</v>
@@ -1940,12 +1892,8 @@
       <c r="AK11" s="12">
         <v>150</v>
       </c>
-      <c r="AL11" s="15">
-        <v>60</v>
-      </c>
-      <c r="AM11" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="13"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
@@ -2003,10 +1951,10 @@
         <v>0.01</v>
       </c>
       <c r="S12" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T12" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U12" s="7">
         <v>1E-3</v>
@@ -2042,10 +1990,10 @@
         <v>1865</v>
       </c>
       <c r="AF12" s="14">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="AG12" s="15">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="AH12" s="15">
         <v>1.1000000000000001</v>
@@ -2059,12 +2007,8 @@
       <c r="AK12" s="12">
         <v>150</v>
       </c>
-      <c r="AL12" s="15">
-        <v>60</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="13"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
@@ -2107,7 +2051,7 @@
         <v>8</v>
       </c>
       <c r="N13" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O13" s="3">
         <v>0.02</v>
@@ -2122,10 +2066,10 @@
         <v>0.01</v>
       </c>
       <c r="S13" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T13" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U13" s="7">
         <v>1E-3</v>
@@ -2158,13 +2102,13 @@
         <v>9</v>
       </c>
       <c r="AE13" s="14">
-        <v>1945</v>
+        <v>1865</v>
       </c>
       <c r="AF13" s="14">
         <v>2021</v>
       </c>
       <c r="AG13" s="15">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="AH13" s="15">
         <v>1.1000000000000001</v>
@@ -2178,12 +2122,8 @@
       <c r="AK13" s="12">
         <v>150</v>
       </c>
-      <c r="AL13" s="15">
-        <v>60</v>
-      </c>
-      <c r="AM13" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="13"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
@@ -2226,7 +2166,7 @@
         <v>8</v>
       </c>
       <c r="N14" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O14" s="3">
         <v>0.02</v>
@@ -2241,10 +2181,10 @@
         <v>0.01</v>
       </c>
       <c r="S14" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T14" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U14" s="7">
         <v>1E-3</v>
@@ -2277,13 +2217,13 @@
         <v>9</v>
       </c>
       <c r="AE14" s="14">
-        <v>1945</v>
+        <v>1865</v>
       </c>
       <c r="AF14" s="14">
         <v>2021</v>
       </c>
       <c r="AG14" s="15">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="AH14" s="15">
         <v>1.1000000000000001</v>
@@ -2297,12 +2237,8 @@
       <c r="AK14" s="12">
         <v>150</v>
       </c>
-      <c r="AL14" s="15">
-        <v>60</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="13"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
@@ -2345,7 +2281,7 @@
         <v>8</v>
       </c>
       <c r="N15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O15" s="3">
         <v>0.02</v>
@@ -2360,10 +2296,10 @@
         <v>0.01</v>
       </c>
       <c r="S15" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T15" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U15" s="7">
         <v>1E-3</v>
@@ -2396,13 +2332,13 @@
         <v>9</v>
       </c>
       <c r="AE15" s="14">
-        <v>1945</v>
+        <v>1865</v>
       </c>
       <c r="AF15" s="14">
         <v>2021</v>
       </c>
       <c r="AG15" s="15">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="AH15" s="15">
         <v>1.1000000000000001</v>
@@ -2416,12 +2352,8 @@
       <c r="AK15" s="12">
         <v>150</v>
       </c>
-      <c r="AL15" s="15">
-        <v>60</v>
-      </c>
-      <c r="AM15" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="13"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
@@ -2479,10 +2411,10 @@
         <v>0.01</v>
       </c>
       <c r="S16" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T16" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U16" s="7">
         <v>1E-3</v>
@@ -2515,13 +2447,13 @@
         <v>6.25</v>
       </c>
       <c r="AE16" s="14">
-        <v>1945</v>
+        <v>1865</v>
       </c>
       <c r="AF16" s="14">
         <v>2021</v>
       </c>
       <c r="AG16" s="15">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="AH16" s="15">
         <v>1.1000000000000001</v>
@@ -2535,12 +2467,8 @@
       <c r="AK16" s="12">
         <v>150</v>
       </c>
-      <c r="AL16" s="15">
-        <v>60</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="13"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
@@ -2583,7 +2511,7 @@
         <v>8</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>0.02</v>
@@ -2598,10 +2526,10 @@
         <v>0.01</v>
       </c>
       <c r="S17" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T17" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U17" s="7">
         <v>1E-3</v>
@@ -2634,13 +2562,13 @@
         <v>9</v>
       </c>
       <c r="AE17" s="14">
-        <v>1945</v>
+        <v>1865</v>
       </c>
       <c r="AF17" s="14">
         <v>2021</v>
       </c>
       <c r="AG17" s="15">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="AH17" s="15">
         <v>1.1000000000000001</v>
@@ -2654,12 +2582,8 @@
       <c r="AK17" s="12">
         <v>150</v>
       </c>
-      <c r="AL17" s="15">
-        <v>60</v>
-      </c>
-      <c r="AM17" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="13"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J17">

--- a/cbrunner/Parameters/Parameters_ByBGCZ.xlsx
+++ b/cbrunner/Parameters/Parameters_ByBGCZ.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B31305-74D0-4088-93A1-BD6C0AD7C8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3BB7AF-3F92-40B3-A848-2DA0EC3BF343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Zone" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -142,9 +140,6 @@
     <t>HM</t>
   </si>
   <si>
-    <t>SI SME</t>
-  </si>
-  <si>
     <t>Pile Burn Rate</t>
   </si>
   <si>
@@ -154,42 +149,6 @@
     <t>Harvest Po Shape</t>
   </si>
   <si>
-    <t>Disease Po Inf</t>
-  </si>
-  <si>
-    <t>Disease Po Shape</t>
-  </si>
-  <si>
-    <t>Disease Sev Alpha</t>
-  </si>
-  <si>
-    <t>Disease Sev Beta</t>
-  </si>
-  <si>
-    <t>Frost Po Inf</t>
-  </si>
-  <si>
-    <t>Frost Po Shape</t>
-  </si>
-  <si>
-    <t>Frost Sev Alpha</t>
-  </si>
-  <si>
-    <t>Frost Sev Beta</t>
-  </si>
-  <si>
-    <t>Wind Po Inf</t>
-  </si>
-  <si>
-    <t>Wind Po Shape</t>
-  </si>
-  <si>
-    <t>Wind Sev Alpha</t>
-  </si>
-  <si>
-    <t>Wind Sev Beta</t>
-  </si>
-  <si>
     <t>GM t0</t>
   </si>
   <si>
@@ -211,16 +170,73 @@
     <t>GM Age_o</t>
   </si>
   <si>
-    <t>Disease Po Sat Pct</t>
-  </si>
-  <si>
-    <t>Wind Po Sat Pct</t>
-  </si>
-  <si>
-    <t>Frost Po Sat Pct</t>
-  </si>
-  <si>
     <t>Harvest Po Sat Pct</t>
+  </si>
+  <si>
+    <t>Disease Sev Prob Low</t>
+  </si>
+  <si>
+    <t>Disease Sev Prob Medium</t>
+  </si>
+  <si>
+    <t>Disease Sev Prob High</t>
+  </si>
+  <si>
+    <t>Disease Sev Prob Sum</t>
+  </si>
+  <si>
+    <t>Disease Sev Mort Low</t>
+  </si>
+  <si>
+    <t>Disease Sev Mort Medium</t>
+  </si>
+  <si>
+    <t>Disease Sev Mort High</t>
+  </si>
+  <si>
+    <t>Wind Sev Prob Low</t>
+  </si>
+  <si>
+    <t>Wind Sev Prob Medium</t>
+  </si>
+  <si>
+    <t>Wind Sev Prob High</t>
+  </si>
+  <si>
+    <t>Wind Sev Prob Sum</t>
+  </si>
+  <si>
+    <t>Wind Sev Mort Low</t>
+  </si>
+  <si>
+    <t>Wind Sev Mort Medium</t>
+  </si>
+  <si>
+    <t>Wind Sev Mort High</t>
+  </si>
+  <si>
+    <t>Disease Occ Sat Pct</t>
+  </si>
+  <si>
+    <t>Disease Occ Inf</t>
+  </si>
+  <si>
+    <t>Disease Occ Shape</t>
+  </si>
+  <si>
+    <t>Wind Occ Sat Pct</t>
+  </si>
+  <si>
+    <t>Wind Occ Inf</t>
+  </si>
+  <si>
+    <t>Wind Occ Shape</t>
+  </si>
+  <si>
+    <t>SI Calibration</t>
+  </si>
+  <si>
+    <t>Decomposition Adjustment Factor</t>
   </si>
 </sst>
 </file>
@@ -242,12 +258,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -262,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -287,12 +321,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -304,6 +332,27 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,30 +658,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AS35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG3" sqref="AG3:AG17"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11" style="6" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="8" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" style="8"/>
-    <col min="36" max="37" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="6"/>
+    <col min="17" max="17" width="9.5703125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" style="8" customWidth="1"/>
+    <col min="42" max="43" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" s="1" customFormat="1" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -655,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>21</v>
@@ -667,86 +717,104 @@
         <v>24</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AL1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AM1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AN1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AO1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="AP1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AQ1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
@@ -774,94 +842,114 @@
         <v>900</v>
       </c>
       <c r="J2" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>8</v>
       </c>
-      <c r="N2" s="3">
-        <v>400</v>
-      </c>
       <c r="O2" s="3">
+        <v>450</v>
+      </c>
+      <c r="P2" s="20">
         <v>0.02</v>
       </c>
-      <c r="P2" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>125</v>
+      <c r="Q2" s="7">
+        <v>2</v>
       </c>
       <c r="R2" s="9">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="S2" s="9">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="T2" s="9">
-        <v>5</v>
-      </c>
-      <c r="U2" s="7">
-        <v>1E-3</v>
+        <v>0.5</v>
+      </c>
+      <c r="U2" s="9">
+        <v>0.3</v>
       </c>
       <c r="V2" s="9">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="W2" s="9">
-        <v>0.5</v>
+        <f>SUM(T2:V2)</f>
+        <v>1</v>
       </c>
       <c r="X2" s="9">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Y2" s="9">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>90</v>
+        <v>0.25</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB2" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC2" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC2" s="9">
-        <v>1</v>
-      </c>
       <c r="AD2" s="9">
-        <v>9</v>
-      </c>
-      <c r="AE2" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AE2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG2" s="9">
+        <f>SUM(AD2:AF2)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH2" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AI2" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AJ2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="12">
         <v>1865</v>
       </c>
-      <c r="AF2" s="14">
+      <c r="AL2" s="12">
         <v>2021</v>
       </c>
-      <c r="AG2" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AH2" s="15">
+      <c r="AM2" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AN2" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI2" s="15">
+      <c r="AO2" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ2" s="12">
+      <c r="AP2" s="10">
         <v>0</v>
       </c>
-      <c r="AK2" s="12">
+      <c r="AQ2" s="10">
         <v>150</v>
       </c>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="13"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="11"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
@@ -889,94 +977,114 @@
         <v>900</v>
       </c>
       <c r="J3" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K3" s="4">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
         <v>0.95</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>8</v>
       </c>
-      <c r="N3" s="3">
-        <v>400</v>
-      </c>
       <c r="O3" s="3">
+        <v>450</v>
+      </c>
+      <c r="P3" s="20">
         <v>0.02</v>
       </c>
-      <c r="P3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>125</v>
+      <c r="Q3" s="7">
+        <v>2</v>
       </c>
       <c r="R3" s="9">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="S3" s="9">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="T3" s="9">
-        <v>5</v>
-      </c>
-      <c r="U3" s="7">
-        <v>1E-3</v>
+        <v>0.5</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0.3</v>
       </c>
       <c r="V3" s="9">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="W3" s="9">
-        <v>0.5</v>
+        <f t="shared" ref="W3:W17" si="0">SUM(T3:V3)</f>
+        <v>1</v>
       </c>
       <c r="X3" s="9">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Y3" s="9">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA3" s="9">
-        <v>90</v>
+        <v>0.25</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB3" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC3" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC3" s="9">
-        <v>1</v>
-      </c>
       <c r="AD3" s="9">
-        <v>9</v>
-      </c>
-      <c r="AE3" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG3" s="9">
+        <f t="shared" ref="AG3:AG17" si="1">SUM(AD3:AF3)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="12">
         <v>1865</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AL3" s="12">
         <v>2021</v>
       </c>
-      <c r="AG3" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AH3" s="15">
+      <c r="AM3" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AN3" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI3" s="15">
+      <c r="AO3" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ3" s="12">
+      <c r="AP3" s="10">
         <v>0</v>
       </c>
-      <c r="AK3" s="12">
+      <c r="AQ3" s="10">
         <v>150</v>
       </c>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="13"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="11"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
@@ -998,7 +1106,7 @@
         <v>104.8831844336059</v>
       </c>
       <c r="H4" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" s="4">
         <v>2500</v>
@@ -1010,88 +1118,108 @@
         <v>125</v>
       </c>
       <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
         <v>0.95</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>8</v>
       </c>
-      <c r="N4" s="3">
-        <v>400</v>
-      </c>
       <c r="O4" s="3">
+        <v>450</v>
+      </c>
+      <c r="P4" s="20">
         <v>0.02</v>
       </c>
-      <c r="P4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>125</v>
+      <c r="Q4" s="7">
+        <v>2</v>
       </c>
       <c r="R4" s="9">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="S4" s="9">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="T4" s="9">
-        <v>5</v>
-      </c>
-      <c r="U4" s="7">
-        <v>1E-3</v>
+        <v>0.5</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0.3</v>
       </c>
       <c r="V4" s="9">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="W4" s="9">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X4" s="9">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Y4" s="9">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA4" s="9">
-        <v>90</v>
+        <v>0.25</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB4" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC4" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC4" s="9">
-        <v>1</v>
-      </c>
       <c r="AD4" s="9">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG4" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AJ4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="12">
         <v>1865</v>
       </c>
-      <c r="AF4" s="14">
+      <c r="AL4" s="12">
         <v>2021</v>
       </c>
-      <c r="AG4" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AH4" s="15">
+      <c r="AM4" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AN4" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI4" s="15">
+      <c r="AO4" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ4" s="12">
+      <c r="AP4" s="10">
         <v>0</v>
       </c>
-      <c r="AK4" s="12">
+      <c r="AQ4" s="10">
         <v>150</v>
       </c>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="13"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="11"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
@@ -1113,7 +1241,7 @@
         <v>107.8109081635906</v>
       </c>
       <c r="H5" s="5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I5" s="4">
         <v>1600</v>
@@ -1128,85 +1256,105 @@
         <v>1</v>
       </c>
       <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
         <v>8</v>
       </c>
-      <c r="N5" s="3">
-        <v>400</v>
-      </c>
       <c r="O5" s="3">
+        <v>450</v>
+      </c>
+      <c r="P5" s="20">
         <v>0.02</v>
       </c>
-      <c r="P5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>125</v>
+      <c r="Q5" s="7">
+        <v>2</v>
       </c>
       <c r="R5" s="9">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="S5" s="9">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="T5" s="9">
-        <v>5</v>
-      </c>
-      <c r="U5" s="7">
-        <v>1E-3</v>
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0.3</v>
       </c>
       <c r="V5" s="9">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="W5" s="9">
-        <v>0.85</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X5" s="9">
-        <v>4</v>
+        <v>0.01</v>
       </c>
       <c r="Y5" s="9">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>125</v>
+        <v>0.25</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB5" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC5" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC5" s="9">
-        <v>8</v>
-      </c>
       <c r="AD5" s="9">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG5" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AJ5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="12">
         <v>1865</v>
       </c>
-      <c r="AF5" s="14">
+      <c r="AL5" s="12">
         <v>2021</v>
       </c>
-      <c r="AG5" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AH5" s="15">
+      <c r="AM5" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AN5" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI5" s="15">
+      <c r="AO5" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AP5" s="10">
         <v>0</v>
       </c>
-      <c r="AK5" s="12">
+      <c r="AQ5" s="10">
         <v>150</v>
       </c>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3">
@@ -1234,94 +1382,114 @@
         <v>900</v>
       </c>
       <c r="J6" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K6" s="4">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
         <v>0.95</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>8</v>
       </c>
-      <c r="N6" s="3">
-        <v>400</v>
-      </c>
       <c r="O6" s="3">
+        <v>450</v>
+      </c>
+      <c r="P6" s="20">
         <v>0.02</v>
       </c>
-      <c r="P6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>125</v>
+      <c r="Q6" s="7">
+        <v>2</v>
       </c>
       <c r="R6" s="9">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="S6" s="9">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="T6" s="9">
-        <v>5</v>
-      </c>
-      <c r="U6" s="7">
-        <v>1E-3</v>
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0.3</v>
       </c>
       <c r="V6" s="9">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="W6" s="9">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X6" s="9">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Y6" s="9">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>90</v>
+        <v>0.25</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB6" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC6" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC6" s="9">
-        <v>3</v>
-      </c>
       <c r="AD6" s="9">
-        <v>7</v>
-      </c>
-      <c r="AE6" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AJ6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="12">
         <v>1865</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AL6" s="12">
         <v>2021</v>
       </c>
-      <c r="AG6" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AH6" s="15">
+      <c r="AM6" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AN6" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI6" s="15">
+      <c r="AO6" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ6" s="12">
+      <c r="AP6" s="10">
         <v>0</v>
       </c>
-      <c r="AK6" s="12">
+      <c r="AQ6" s="10">
         <v>150</v>
       </c>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="13"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="11"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
@@ -1343,7 +1511,7 @@
         <v>202.8714727442952</v>
       </c>
       <c r="H7" s="5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I7" s="4">
         <v>2000</v>
@@ -1352,91 +1520,111 @@
         <v>1</v>
       </c>
       <c r="K7" s="4">
-        <v>2600</v>
+        <v>225</v>
       </c>
       <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
         <v>0.35</v>
       </c>
-      <c r="M7" s="3">
-        <v>8</v>
-      </c>
       <c r="N7" s="3">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="O7" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>100</v>
+        <v>450</v>
+      </c>
+      <c r="P7" s="20">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>2</v>
       </c>
       <c r="R7" s="9">
+        <v>100</v>
+      </c>
+      <c r="S7" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S7" s="9">
-        <v>5</v>
-      </c>
       <c r="T7" s="9">
-        <v>5</v>
-      </c>
-      <c r="U7" s="7">
-        <v>1E-3</v>
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0.3</v>
       </c>
       <c r="V7" s="9">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="W7" s="9">
-        <v>0.85</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X7" s="9">
-        <v>4</v>
+        <v>0.01</v>
       </c>
       <c r="Y7" s="9">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>100</v>
+        <v>0.25</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB7" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC7" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC7" s="9">
-        <v>8</v>
-      </c>
       <c r="AD7" s="9">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="14">
-        <v>1865</v>
-      </c>
-      <c r="AF7" s="14">
-        <v>2021</v>
-      </c>
-      <c r="AG7" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AH7" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AI7" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AJ7" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG7" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AJ7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="12">
+        <v>1850</v>
+      </c>
+      <c r="AL7" s="12">
+        <v>1960</v>
+      </c>
+      <c r="AM7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AN7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="10">
         <v>0</v>
       </c>
-      <c r="AK7" s="12">
+      <c r="AQ7" s="10">
         <v>150</v>
       </c>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3">
@@ -1458,7 +1646,7 @@
         <v>160.77369938916249</v>
       </c>
       <c r="H8" s="5">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I8" s="4">
         <v>2050</v>
@@ -1467,91 +1655,111 @@
         <v>1</v>
       </c>
       <c r="K8" s="4">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
         <v>0.8</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8</v>
       </c>
-      <c r="N8" s="3">
-        <v>400</v>
-      </c>
       <c r="O8" s="3">
+        <v>450</v>
+      </c>
+      <c r="P8" s="20">
         <v>0.02</v>
       </c>
-      <c r="P8" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>100</v>
+      <c r="Q8" s="7">
+        <v>2</v>
       </c>
       <c r="R8" s="9">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="S8" s="9">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="T8" s="9">
-        <v>5</v>
-      </c>
-      <c r="U8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="U8" s="9">
         <v>0.3</v>
       </c>
       <c r="V8" s="9">
-        <v>100</v>
+        <v>0.2</v>
       </c>
       <c r="W8" s="9">
-        <v>1E-3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X8" s="9">
-        <v>8</v>
+        <v>0.01</v>
       </c>
       <c r="Y8" s="9">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA8" s="9">
-        <v>90</v>
+        <v>0.25</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB8" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC8" s="9">
-        <v>3.75</v>
-      </c>
       <c r="AD8" s="9">
-        <v>6.25</v>
-      </c>
-      <c r="AE8" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AJ8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="12">
         <v>1865</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AL8" s="12">
         <v>2021</v>
       </c>
-      <c r="AG8" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AH8" s="15">
+      <c r="AM8" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AN8" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI8" s="15">
+      <c r="AO8" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ8" s="12">
+      <c r="AP8" s="10">
         <v>0</v>
       </c>
-      <c r="AK8" s="12">
+      <c r="AQ8" s="10">
         <v>150</v>
       </c>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="13"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="11"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3">
@@ -1573,7 +1781,7 @@
         <v>140.73492133124211</v>
       </c>
       <c r="H9" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="4">
         <v>2100</v>
@@ -1585,88 +1793,108 @@
         <v>200</v>
       </c>
       <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
         <v>0.8</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8</v>
       </c>
-      <c r="N9" s="3">
-        <v>400</v>
-      </c>
       <c r="O9" s="3">
+        <v>450</v>
+      </c>
+      <c r="P9" s="20">
         <v>0.02</v>
       </c>
-      <c r="P9" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>125</v>
+      <c r="Q9" s="7">
+        <v>2</v>
       </c>
       <c r="R9" s="9">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="S9" s="9">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="T9" s="9">
-        <v>5</v>
-      </c>
-      <c r="U9" s="7">
-        <v>1E-3</v>
+        <v>0.5</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0.3</v>
       </c>
       <c r="V9" s="9">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="W9" s="9">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X9" s="9">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Y9" s="9">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA9" s="9">
-        <v>125</v>
+        <v>0.25</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB9" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC9" s="9">
-        <v>2</v>
-      </c>
       <c r="AD9" s="9">
-        <v>8</v>
-      </c>
-      <c r="AE9" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF9" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AI9" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AJ9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="12">
         <v>1865</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AL9" s="12">
         <v>2021</v>
       </c>
-      <c r="AG9" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AH9" s="15">
+      <c r="AM9" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AN9" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI9" s="15">
+      <c r="AO9" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ9" s="12">
+      <c r="AP9" s="10">
         <v>0</v>
       </c>
-      <c r="AK9" s="12">
+      <c r="AQ9" s="10">
         <v>150</v>
       </c>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="13"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="11"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3">
@@ -1688,100 +1916,120 @@
         <v>114.0065953122113</v>
       </c>
       <c r="H10" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I10" s="4">
         <v>950</v>
       </c>
       <c r="J10" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" s="4">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="L10" s="3">
         <v>1</v>
       </c>
       <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
         <v>8</v>
       </c>
-      <c r="N10" s="3">
-        <v>400</v>
-      </c>
       <c r="O10" s="3">
+        <v>450</v>
+      </c>
+      <c r="P10" s="20">
         <v>0.02</v>
       </c>
-      <c r="P10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>125</v>
+      <c r="Q10" s="7">
+        <v>2</v>
       </c>
       <c r="R10" s="9">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="S10" s="9">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="T10" s="9">
-        <v>5</v>
-      </c>
-      <c r="U10" s="7">
-        <v>1E-3</v>
+        <v>0.5</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0.3</v>
       </c>
       <c r="V10" s="9">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="W10" s="9">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X10" s="9">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Y10" s="9">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA10" s="9">
-        <v>90</v>
+        <v>0.25</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB10" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC10" s="9">
-        <v>1</v>
-      </c>
       <c r="AD10" s="9">
-        <v>9</v>
-      </c>
-      <c r="AE10" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH10" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AJ10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="12">
         <v>1865</v>
       </c>
-      <c r="AF10" s="14">
+      <c r="AL10" s="12">
         <v>2021</v>
       </c>
-      <c r="AG10" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AH10" s="15">
+      <c r="AM10" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AN10" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI10" s="15">
+      <c r="AO10" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ10" s="12">
+      <c r="AP10" s="10">
         <v>0</v>
       </c>
-      <c r="AK10" s="12">
+      <c r="AQ10" s="10">
         <v>150</v>
       </c>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="13"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="11"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3">
@@ -1809,94 +2057,114 @@
         <v>900</v>
       </c>
       <c r="J11" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K11" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
         <v>0.95</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>8</v>
       </c>
-      <c r="N11" s="3">
-        <v>400</v>
-      </c>
       <c r="O11" s="3">
+        <v>450</v>
+      </c>
+      <c r="P11" s="20">
         <v>0.02</v>
       </c>
-      <c r="P11" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>125</v>
+      <c r="Q11" s="7">
+        <v>2</v>
       </c>
       <c r="R11" s="9">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="S11" s="9">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="T11" s="9">
-        <v>5</v>
-      </c>
-      <c r="U11" s="7">
-        <v>1E-3</v>
+        <v>0.5</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.3</v>
       </c>
       <c r="V11" s="9">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="W11" s="9">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X11" s="9">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Y11" s="9">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA11" s="9">
-        <v>90</v>
+        <v>0.25</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB11" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC11" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC11" s="9">
-        <v>3</v>
-      </c>
       <c r="AD11" s="9">
-        <v>7</v>
-      </c>
-      <c r="AE11" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH11" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AI11" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AJ11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="12">
         <v>1865</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AL11" s="12">
         <v>2021</v>
       </c>
-      <c r="AG11" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AH11" s="15">
+      <c r="AM11" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AN11" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI11" s="15">
+      <c r="AO11" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ11" s="12">
+      <c r="AP11" s="10">
         <v>0</v>
       </c>
-      <c r="AK11" s="12">
+      <c r="AQ11" s="10">
         <v>150</v>
       </c>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="13"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="11"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3">
@@ -1924,94 +2192,114 @@
         <v>900</v>
       </c>
       <c r="J12" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K12" s="4">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
         <v>0.35</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8</v>
       </c>
-      <c r="N12" s="3">
-        <v>400</v>
-      </c>
       <c r="O12" s="3">
+        <v>450</v>
+      </c>
+      <c r="P12" s="20">
         <v>0.02</v>
       </c>
-      <c r="P12" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>125</v>
+      <c r="Q12" s="7">
+        <v>2</v>
       </c>
       <c r="R12" s="9">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="S12" s="9">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="T12" s="9">
-        <v>5</v>
-      </c>
-      <c r="U12" s="7">
-        <v>1E-3</v>
+        <v>0.5</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0.3</v>
       </c>
       <c r="V12" s="9">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="W12" s="9">
-        <v>0.85</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X12" s="9">
-        <v>4</v>
+        <v>0.01</v>
       </c>
       <c r="Y12" s="9">
-        <v>4</v>
-      </c>
-      <c r="Z12" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA12" s="9">
-        <v>175</v>
+        <v>0.25</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB12" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC12" s="9">
-        <v>8</v>
-      </c>
       <c r="AD12" s="9">
-        <v>2</v>
-      </c>
-      <c r="AE12" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AI12" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AJ12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="12">
         <v>1865</v>
       </c>
-      <c r="AF12" s="14">
+      <c r="AL12" s="12">
         <v>2021</v>
       </c>
-      <c r="AG12" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AH12" s="15">
+      <c r="AM12" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AN12" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI12" s="15">
+      <c r="AO12" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ12" s="12">
+      <c r="AP12" s="10">
         <v>0</v>
       </c>
-      <c r="AK12" s="12">
+      <c r="AQ12" s="10">
         <v>150</v>
       </c>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="13"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="11"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3">
@@ -2033,7 +2321,7 @@
         <v>105.0204952449018</v>
       </c>
       <c r="H13" s="5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I13" s="4">
         <v>2200</v>
@@ -2045,88 +2333,108 @@
         <v>150</v>
       </c>
       <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
         <v>0.95</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>8</v>
       </c>
-      <c r="N13" s="3">
-        <v>400</v>
-      </c>
       <c r="O13" s="3">
+        <v>450</v>
+      </c>
+      <c r="P13" s="20">
         <v>0.02</v>
       </c>
-      <c r="P13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>125</v>
+      <c r="Q13" s="7">
+        <v>2</v>
       </c>
       <c r="R13" s="9">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="S13" s="9">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="T13" s="9">
-        <v>5</v>
-      </c>
-      <c r="U13" s="7">
-        <v>1E-3</v>
+        <v>0.5</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0.3</v>
       </c>
       <c r="V13" s="9">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="W13" s="9">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X13" s="9">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Y13" s="9">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA13" s="9">
-        <v>90</v>
+        <v>0.25</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB13" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC13" s="9">
-        <v>1</v>
-      </c>
       <c r="AD13" s="9">
-        <v>9</v>
-      </c>
-      <c r="AE13" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH13" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AI13" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AJ13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="12">
         <v>1865</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AL13" s="12">
         <v>2021</v>
       </c>
-      <c r="AG13" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AH13" s="15">
+      <c r="AM13" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AN13" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI13" s="15">
+      <c r="AO13" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ13" s="12">
+      <c r="AP13" s="10">
         <v>0</v>
       </c>
-      <c r="AK13" s="12">
+      <c r="AQ13" s="10">
         <v>150</v>
       </c>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="13"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="11"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3">
@@ -2154,94 +2462,114 @@
         <v>900</v>
       </c>
       <c r="J14" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K14" s="4">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="L14" s="3">
         <v>1</v>
       </c>
       <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>400</v>
-      </c>
       <c r="O14" s="3">
+        <v>450</v>
+      </c>
+      <c r="P14" s="20">
         <v>0.02</v>
       </c>
-      <c r="P14" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>125</v>
+      <c r="Q14" s="7">
+        <v>2</v>
       </c>
       <c r="R14" s="9">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="S14" s="9">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="T14" s="9">
-        <v>5</v>
-      </c>
-      <c r="U14" s="7">
-        <v>1E-3</v>
+        <v>0.5</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0.3</v>
       </c>
       <c r="V14" s="9">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="W14" s="9">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X14" s="9">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Y14" s="9">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA14" s="9">
-        <v>90</v>
+        <v>0.25</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB14" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC14" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC14" s="9">
-        <v>1</v>
-      </c>
       <c r="AD14" s="9">
-        <v>9</v>
-      </c>
-      <c r="AE14" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG14" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH14" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AJ14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="12">
         <v>1865</v>
       </c>
-      <c r="AF14" s="14">
+      <c r="AL14" s="12">
         <v>2021</v>
       </c>
-      <c r="AG14" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AH14" s="15">
+      <c r="AM14" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AN14" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI14" s="15">
+      <c r="AO14" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ14" s="12">
+      <c r="AP14" s="10">
         <v>0</v>
       </c>
-      <c r="AK14" s="12">
+      <c r="AQ14" s="10">
         <v>150</v>
       </c>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="13"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="11"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3">
@@ -2263,7 +2591,7 @@
         <v>93.247438914291919</v>
       </c>
       <c r="H15" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" s="4">
         <v>2200</v>
@@ -2275,88 +2603,108 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
         <v>0.95</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>400</v>
-      </c>
       <c r="O15" s="3">
+        <v>450</v>
+      </c>
+      <c r="P15" s="20">
         <v>0.02</v>
       </c>
-      <c r="P15" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>125</v>
+      <c r="Q15" s="7">
+        <v>2</v>
       </c>
       <c r="R15" s="9">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="S15" s="9">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="T15" s="9">
-        <v>5</v>
-      </c>
-      <c r="U15" s="7">
-        <v>1E-3</v>
+        <v>0.5</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0.3</v>
       </c>
       <c r="V15" s="9">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="W15" s="9">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X15" s="9">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Y15" s="9">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA15" s="9">
-        <v>90</v>
+        <v>0.25</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB15" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC15" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC15" s="9">
-        <v>1</v>
-      </c>
       <c r="AD15" s="9">
-        <v>9</v>
-      </c>
-      <c r="AE15" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AE15" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH15" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AI15" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AJ15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="12">
         <v>1865</v>
       </c>
-      <c r="AF15" s="14">
+      <c r="AL15" s="12">
         <v>2021</v>
       </c>
-      <c r="AG15" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AH15" s="15">
+      <c r="AM15" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AN15" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI15" s="15">
+      <c r="AO15" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ15" s="12">
+      <c r="AP15" s="10">
         <v>0</v>
       </c>
-      <c r="AK15" s="12">
+      <c r="AQ15" s="10">
         <v>150</v>
       </c>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="13"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="11"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3">
@@ -2378,7 +2726,7 @@
         <v>100.408119761297</v>
       </c>
       <c r="H16" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I16" s="4">
         <v>1800</v>
@@ -2390,88 +2738,108 @@
         <v>125</v>
       </c>
       <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
         <v>0.95</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>8</v>
       </c>
-      <c r="N16" s="3">
-        <v>400</v>
-      </c>
       <c r="O16" s="3">
+        <v>450</v>
+      </c>
+      <c r="P16" s="20">
         <v>0.02</v>
       </c>
-      <c r="P16" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>125</v>
+      <c r="Q16" s="7">
+        <v>2</v>
       </c>
       <c r="R16" s="9">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="S16" s="9">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="T16" s="9">
-        <v>5</v>
-      </c>
-      <c r="U16" s="7">
-        <v>1E-3</v>
+        <v>0.5</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0.3</v>
       </c>
       <c r="V16" s="9">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="W16" s="9">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X16" s="9">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Y16" s="9">
-        <v>8</v>
-      </c>
-      <c r="Z16" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA16" s="9">
-        <v>90</v>
+        <v>0.25</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB16" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC16" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC16" s="9">
-        <v>3.75</v>
-      </c>
       <c r="AD16" s="9">
-        <v>6.25</v>
-      </c>
-      <c r="AE16" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG16" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AJ16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="12">
         <v>1865</v>
       </c>
-      <c r="AF16" s="14">
+      <c r="AL16" s="12">
         <v>2021</v>
       </c>
-      <c r="AG16" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AH16" s="15">
+      <c r="AM16" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AN16" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI16" s="15">
+      <c r="AO16" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ16" s="12">
+      <c r="AP16" s="10">
         <v>0</v>
       </c>
-      <c r="AK16" s="12">
+      <c r="AQ16" s="10">
         <v>150</v>
       </c>
-      <c r="AL16" s="15"/>
-      <c r="AM16" s="13"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="11"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3">
@@ -2493,7 +2861,7 @@
         <v>146.39694635949971</v>
       </c>
       <c r="H17" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="4">
         <v>1900</v>
@@ -2502,88 +2870,174 @@
         <v>1</v>
       </c>
       <c r="K17" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
         <v>0.95</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8</v>
       </c>
-      <c r="N17" s="3">
-        <v>400</v>
-      </c>
       <c r="O17" s="3">
+        <v>450</v>
+      </c>
+      <c r="P17" s="20">
         <v>0.02</v>
       </c>
-      <c r="P17" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>125</v>
+      <c r="Q17" s="7">
+        <v>2</v>
       </c>
       <c r="R17" s="9">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="S17" s="9">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="T17" s="9">
-        <v>5</v>
-      </c>
-      <c r="U17" s="7">
-        <v>1E-3</v>
+        <v>0.5</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0.3</v>
       </c>
       <c r="V17" s="9">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="W17" s="9">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X17" s="9">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Y17" s="9">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AA17" s="9">
-        <v>90</v>
+        <v>0.25</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB17" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC17" s="9">
-        <v>1</v>
-      </c>
       <c r="AD17" s="9">
-        <v>9</v>
-      </c>
-      <c r="AE17" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF17" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG17" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AJ17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="12">
         <v>1865</v>
       </c>
-      <c r="AF17" s="14">
+      <c r="AL17" s="12">
         <v>2021</v>
       </c>
-      <c r="AG17" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AH17" s="15">
+      <c r="AM17" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AN17" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI17" s="15">
+      <c r="AO17" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ17" s="12">
+      <c r="AP17" s="10">
         <v>0</v>
       </c>
-      <c r="AK17" s="12">
+      <c r="AQ17" s="10">
         <v>150</v>
       </c>
-      <c r="AL17" s="15"/>
-      <c r="AM17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="11"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J17">
@@ -2592,28 +3046,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/cbrunner/Parameters/Parameters_ByBGCZ.xlsx
+++ b/cbrunner/Parameters/Parameters_ByBGCZ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3BB7AF-3F92-40B3-A848-2DA0EC3BF343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF4C8A-C99E-4BE4-B259-ABC52B2C8236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>Decomposition Adjustment Factor</t>
+  </si>
+  <si>
+    <t>SI Calibration for FNM</t>
+  </si>
+  <si>
+    <t>SI Calibration for NOSE</t>
   </si>
 </sst>
 </file>
@@ -658,13 +664,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS35"/>
+  <dimension ref="A1:AU35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,17 +678,17 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="6"/>
-    <col min="17" max="17" width="9.5703125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" style="8" customWidth="1"/>
-    <col min="42" max="43" width="9.7109375" customWidth="1"/>
+    <col min="8" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="6"/>
+    <col min="19" max="19" width="9.5703125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" style="8" customWidth="1"/>
+    <col min="44" max="45" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -708,112 +714,118 @@
         <v>66</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Z1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="AA1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="AB1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AI1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AK1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AL1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AK1" s="18" t="s">
+      <c r="AM1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="18" t="s">
+      <c r="AN1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="18" t="s">
+      <c r="AO1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" s="18" t="s">
+      <c r="AP1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="18" t="s">
+      <c r="AQ1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="18" t="s">
+      <c r="AR1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" s="18" t="s">
+      <c r="AS1" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -838,117 +850,124 @@
       <c r="H2" s="5">
         <v>10</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5">
+        <f>1.2*H2</f>
+        <v>12</v>
+      </c>
+      <c r="K2" s="4">
         <v>900</v>
       </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
         <v>200</v>
       </c>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
         <v>0</v>
       </c>
-      <c r="N2" s="3">
-        <v>8</v>
-      </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="3">
         <v>450</v>
       </c>
-      <c r="P2" s="20">
+      <c r="R2" s="20">
         <v>0.02</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="S2" s="7">
         <v>2</v>
       </c>
-      <c r="R2" s="9">
+      <c r="T2" s="9">
         <v>100</v>
       </c>
-      <c r="S2" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="9">
+      <c r="U2" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="V2" s="9">
         <v>0.5</v>
       </c>
-      <c r="U2" s="9">
+      <c r="W2" s="9">
         <v>0.3</v>
       </c>
-      <c r="V2" s="9">
+      <c r="X2" s="9">
         <v>0.2</v>
       </c>
-      <c r="W2" s="9">
-        <f>SUM(T2:V2)</f>
-        <v>1</v>
-      </c>
-      <c r="X2" s="9">
-        <v>0.01</v>
-      </c>
       <c r="Y2" s="9">
+        <f>SUM(V2:X2)</f>
+        <v>1</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AA2" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z2" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="7">
+      <c r="AB2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AD2" s="9">
         <v>100</v>
       </c>
-      <c r="AC2" s="9">
+      <c r="AE2" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD2" s="9">
+      <c r="AF2" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE2" s="9">
+      <c r="AG2" s="9">
         <v>0.3</v>
       </c>
-      <c r="AF2" s="9">
+      <c r="AH2" s="9">
         <v>0.1</v>
       </c>
-      <c r="AG2" s="9">
-        <f>SUM(AD2:AF2)</f>
+      <c r="AI2" s="9">
+        <f>SUM(AF2:AH2)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AH2" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AI2" s="9">
+      <c r="AJ2" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AK2" s="9">
         <v>0.25</v>
       </c>
-      <c r="AJ2" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="12">
+      <c r="AL2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="12">
         <v>1865</v>
       </c>
-      <c r="AL2" s="12">
-        <v>2021</v>
-      </c>
-      <c r="AM2" s="13">
+      <c r="AN2" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AO2" s="13">
         <v>0.6</v>
       </c>
-      <c r="AN2" s="13">
+      <c r="AP2" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO2" s="13">
+      <c r="AQ2" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP2" s="10">
+      <c r="AR2" s="10">
         <v>0</v>
       </c>
-      <c r="AQ2" s="10">
+      <c r="AS2" s="10">
         <v>150</v>
       </c>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="11"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="11"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -973,117 +992,124 @@
       <c r="H3" s="5">
         <v>12</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J17" si="0">1.2*H3</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K3" s="4">
         <v>900</v>
       </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
         <v>125</v>
       </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
         <v>0.95</v>
       </c>
-      <c r="N3" s="3">
-        <v>8</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="3">
         <v>450</v>
       </c>
-      <c r="P3" s="20">
+      <c r="R3" s="20">
         <v>0.02</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="S3" s="7">
         <v>2</v>
       </c>
-      <c r="R3" s="9">
+      <c r="T3" s="9">
         <v>100</v>
       </c>
-      <c r="S3" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T3" s="9">
+      <c r="U3" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="V3" s="9">
         <v>0.5</v>
       </c>
-      <c r="U3" s="9">
+      <c r="W3" s="9">
         <v>0.3</v>
       </c>
-      <c r="V3" s="9">
+      <c r="X3" s="9">
         <v>0.2</v>
       </c>
-      <c r="W3" s="9">
-        <f t="shared" ref="W3:W17" si="0">SUM(T3:V3)</f>
-        <v>1</v>
-      </c>
-      <c r="X3" s="9">
-        <v>0.01</v>
-      </c>
       <c r="Y3" s="9">
+        <f t="shared" ref="Y3:Y17" si="1">SUM(V3:X3)</f>
+        <v>1</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AA3" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z3" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="7">
+      <c r="AB3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AD3" s="9">
         <v>100</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AE3" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD3" s="9">
+      <c r="AF3" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AG3" s="9">
         <v>0.3</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AH3" s="9">
         <v>0.1</v>
       </c>
-      <c r="AG3" s="9">
-        <f t="shared" ref="AG3:AG17" si="1">SUM(AD3:AF3)</f>
+      <c r="AI3" s="9">
+        <f t="shared" ref="AI3:AI17" si="2">SUM(AF3:AH3)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AH3" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AI3" s="9">
+      <c r="AJ3" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AK3" s="9">
         <v>0.25</v>
       </c>
-      <c r="AJ3" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="12">
+      <c r="AL3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="12">
         <v>1865</v>
       </c>
-      <c r="AL3" s="12">
-        <v>2021</v>
-      </c>
-      <c r="AM3" s="13">
+      <c r="AN3" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AO3" s="13">
         <v>0.6</v>
       </c>
-      <c r="AN3" s="13">
+      <c r="AP3" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO3" s="13">
+      <c r="AQ3" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP3" s="10">
+      <c r="AR3" s="10">
         <v>0</v>
       </c>
-      <c r="AQ3" s="10">
+      <c r="AS3" s="10">
         <v>150</v>
       </c>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="11"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="11"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -1108,117 +1134,124 @@
       <c r="H4" s="5">
         <v>14</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
+        <v>14</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+      <c r="K4" s="4">
         <v>2500</v>
       </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
         <v>125</v>
       </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
         <v>0.95</v>
       </c>
-      <c r="N4" s="3">
-        <v>8</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="3">
         <v>450</v>
       </c>
-      <c r="P4" s="20">
+      <c r="R4" s="20">
         <v>0.02</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="S4" s="7">
         <v>2</v>
       </c>
-      <c r="R4" s="9">
+      <c r="T4" s="9">
         <v>100</v>
       </c>
-      <c r="S4" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T4" s="9">
+      <c r="U4" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="V4" s="9">
         <v>0.5</v>
       </c>
-      <c r="U4" s="9">
+      <c r="W4" s="9">
         <v>0.3</v>
       </c>
-      <c r="V4" s="9">
+      <c r="X4" s="9">
         <v>0.2</v>
       </c>
-      <c r="W4" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X4" s="9">
-        <v>0.01</v>
-      </c>
       <c r="Y4" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AA4" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="7">
+      <c r="AB4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AD4" s="9">
         <v>100</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AE4" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD4" s="9">
+      <c r="AF4" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE4" s="9">
+      <c r="AG4" s="9">
         <v>0.3</v>
       </c>
-      <c r="AF4" s="9">
+      <c r="AH4" s="9">
         <v>0.1</v>
       </c>
-      <c r="AG4" s="9">
-        <f t="shared" si="1"/>
+      <c r="AI4" s="9">
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AH4" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AI4" s="9">
+      <c r="AJ4" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AK4" s="9">
         <v>0.25</v>
       </c>
-      <c r="AJ4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="12">
+      <c r="AL4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="12">
         <v>1865</v>
       </c>
-      <c r="AL4" s="12">
-        <v>2021</v>
-      </c>
-      <c r="AM4" s="13">
+      <c r="AN4" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AO4" s="13">
         <v>0.6</v>
       </c>
-      <c r="AN4" s="13">
+      <c r="AP4" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO4" s="13">
+      <c r="AQ4" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP4" s="10">
+      <c r="AR4" s="10">
         <v>0</v>
       </c>
-      <c r="AQ4" s="10">
+      <c r="AS4" s="10">
         <v>150</v>
       </c>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="11"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="11"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1243,117 +1276,124 @@
       <c r="H5" s="5">
         <v>30</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
+        <v>30</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K5" s="4">
         <v>1600</v>
       </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
         <v>200</v>
       </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
       <c r="N5" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="3">
         <v>450</v>
       </c>
-      <c r="P5" s="20">
+      <c r="R5" s="20">
         <v>0.02</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="S5" s="7">
         <v>2</v>
       </c>
-      <c r="R5" s="9">
+      <c r="T5" s="9">
         <v>100</v>
       </c>
-      <c r="S5" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T5" s="9">
+      <c r="U5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="V5" s="9">
         <v>0.5</v>
       </c>
-      <c r="U5" s="9">
+      <c r="W5" s="9">
         <v>0.3</v>
       </c>
-      <c r="V5" s="9">
+      <c r="X5" s="9">
         <v>0.2</v>
       </c>
-      <c r="W5" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X5" s="9">
-        <v>0.01</v>
-      </c>
       <c r="Y5" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AA5" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="7">
+      <c r="AB5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AD5" s="9">
         <v>100</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AE5" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD5" s="9">
+      <c r="AF5" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AG5" s="9">
         <v>0.3</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AH5" s="9">
         <v>0.1</v>
       </c>
-      <c r="AG5" s="9">
-        <f t="shared" si="1"/>
+      <c r="AI5" s="9">
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AH5" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AI5" s="9">
+      <c r="AJ5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AK5" s="9">
         <v>0.25</v>
       </c>
-      <c r="AJ5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="12">
+      <c r="AL5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="12">
         <v>1865</v>
       </c>
-      <c r="AL5" s="12">
-        <v>2021</v>
-      </c>
-      <c r="AM5" s="13">
+      <c r="AN5" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AO5" s="13">
         <v>0.6</v>
       </c>
-      <c r="AN5" s="13">
+      <c r="AP5" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO5" s="13">
+      <c r="AQ5" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AR5" s="10">
         <v>0</v>
       </c>
-      <c r="AQ5" s="10">
+      <c r="AS5" s="10">
         <v>150</v>
       </c>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1378,117 +1418,124 @@
       <c r="H6" s="5">
         <v>10</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K6" s="4">
         <v>900</v>
       </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
         <v>225</v>
       </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
         <v>0.95</v>
       </c>
-      <c r="N6" s="3">
-        <v>8</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="3">
         <v>450</v>
       </c>
-      <c r="P6" s="20">
+      <c r="R6" s="20">
         <v>0.02</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="S6" s="7">
         <v>2</v>
       </c>
-      <c r="R6" s="9">
+      <c r="T6" s="9">
         <v>100</v>
       </c>
-      <c r="S6" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T6" s="9">
+      <c r="U6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="V6" s="9">
         <v>0.5</v>
       </c>
-      <c r="U6" s="9">
+      <c r="W6" s="9">
         <v>0.3</v>
       </c>
-      <c r="V6" s="9">
+      <c r="X6" s="9">
         <v>0.2</v>
       </c>
-      <c r="W6" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X6" s="9">
-        <v>0.01</v>
-      </c>
       <c r="Y6" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AA6" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="7">
+      <c r="AB6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AD6" s="9">
         <v>100</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AE6" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD6" s="9">
+      <c r="AF6" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE6" s="9">
+      <c r="AG6" s="9">
         <v>0.3</v>
       </c>
-      <c r="AF6" s="9">
+      <c r="AH6" s="9">
         <v>0.1</v>
       </c>
-      <c r="AG6" s="9">
-        <f t="shared" si="1"/>
+      <c r="AI6" s="9">
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AH6" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AI6" s="9">
+      <c r="AJ6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AK6" s="9">
         <v>0.25</v>
       </c>
-      <c r="AJ6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="12">
+      <c r="AL6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="12">
         <v>1865</v>
       </c>
-      <c r="AL6" s="12">
-        <v>2021</v>
-      </c>
-      <c r="AM6" s="13">
+      <c r="AN6" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AO6" s="13">
         <v>0.6</v>
       </c>
-      <c r="AN6" s="13">
+      <c r="AP6" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO6" s="13">
+      <c r="AQ6" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP6" s="10">
+      <c r="AR6" s="10">
         <v>0</v>
       </c>
-      <c r="AQ6" s="10">
+      <c r="AS6" s="10">
         <v>150</v>
       </c>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="11"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="11"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1513,117 +1560,125 @@
       <c r="H7" s="5">
         <v>30</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
+        <f>1.21*H7</f>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K7" s="4">
         <v>2000</v>
       </c>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
         <v>225</v>
       </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
         <v>0.35</v>
       </c>
-      <c r="N7" s="3">
+      <c r="P7" s="3">
         <v>4</v>
       </c>
-      <c r="O7" s="3">
+      <c r="Q7" s="3">
         <v>450</v>
       </c>
-      <c r="P7" s="20">
+      <c r="R7" s="20">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="S7" s="7">
         <v>2</v>
       </c>
-      <c r="R7" s="9">
+      <c r="T7" s="9">
         <v>100</v>
       </c>
-      <c r="S7" s="9">
+      <c r="U7" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="T7" s="9">
+      <c r="V7" s="9">
         <v>0.5</v>
       </c>
-      <c r="U7" s="9">
+      <c r="W7" s="9">
         <v>0.3</v>
       </c>
-      <c r="V7" s="9">
+      <c r="X7" s="9">
         <v>0.2</v>
       </c>
-      <c r="W7" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X7" s="9">
-        <v>0.01</v>
-      </c>
       <c r="Y7" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AA7" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="7">
+      <c r="AB7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AD7" s="9">
         <v>100</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AE7" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD7" s="9">
+      <c r="AF7" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AG7" s="9">
         <v>0.3</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AH7" s="9">
         <v>0.1</v>
       </c>
-      <c r="AG7" s="9">
-        <f t="shared" si="1"/>
+      <c r="AI7" s="9">
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AH7" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AI7" s="9">
+      <c r="AJ7" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AK7" s="9">
         <v>0.25</v>
       </c>
-      <c r="AJ7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="12">
+      <c r="AL7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="12">
         <v>1850</v>
       </c>
-      <c r="AL7" s="12">
-        <v>1960</v>
-      </c>
-      <c r="AM7" s="13">
+      <c r="AN7" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AO7" s="13">
         <v>0.5</v>
       </c>
-      <c r="AN7" s="13">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="13">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="10">
+      <c r="AP7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="10">
         <v>0</v>
       </c>
-      <c r="AQ7" s="10">
+      <c r="AS7" s="10">
         <v>150</v>
       </c>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1648,117 +1703,125 @@
       <c r="H8" s="5">
         <v>17</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
+        <f>1.19*H8</f>
+        <v>20.23</v>
+      </c>
+      <c r="J8" s="5">
+        <f>1.3*H8</f>
+        <v>22.1</v>
+      </c>
+      <c r="K8" s="4">
         <v>2050</v>
       </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
         <v>175</v>
       </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
         <v>0.8</v>
       </c>
-      <c r="N8" s="3">
-        <v>8</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>450</v>
       </c>
-      <c r="P8" s="20">
+      <c r="R8" s="20">
         <v>0.02</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="S8" s="7">
         <v>2</v>
       </c>
-      <c r="R8" s="9">
+      <c r="T8" s="9">
         <v>100</v>
       </c>
-      <c r="S8" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T8" s="9">
+      <c r="U8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="V8" s="9">
         <v>0.5</v>
       </c>
-      <c r="U8" s="9">
+      <c r="W8" s="9">
         <v>0.3</v>
       </c>
-      <c r="V8" s="9">
+      <c r="X8" s="9">
         <v>0.2</v>
       </c>
-      <c r="W8" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X8" s="9">
-        <v>0.01</v>
-      </c>
       <c r="Y8" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AA8" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z8" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="7">
+      <c r="AB8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AD8" s="9">
         <v>100</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AE8" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD8" s="9">
+      <c r="AF8" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AG8" s="9">
         <v>0.3</v>
       </c>
-      <c r="AF8" s="9">
+      <c r="AH8" s="9">
         <v>0.1</v>
       </c>
-      <c r="AG8" s="9">
-        <f t="shared" si="1"/>
+      <c r="AI8" s="9">
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AH8" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AI8" s="9">
+      <c r="AJ8" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AK8" s="9">
         <v>0.25</v>
       </c>
-      <c r="AJ8" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="12">
+      <c r="AL8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="12">
         <v>1865</v>
       </c>
-      <c r="AL8" s="12">
-        <v>2021</v>
-      </c>
-      <c r="AM8" s="13">
+      <c r="AN8" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AO8" s="13">
         <v>0.6</v>
       </c>
-      <c r="AN8" s="13">
+      <c r="AP8" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO8" s="13">
+      <c r="AQ8" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP8" s="10">
+      <c r="AR8" s="10">
         <v>0</v>
       </c>
-      <c r="AQ8" s="10">
+      <c r="AS8" s="10">
         <v>150</v>
       </c>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="11"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="11"/>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -1783,117 +1846,125 @@
       <c r="H9" s="5">
         <v>22</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
+        <f>1.22*H9</f>
+        <v>26.84</v>
+      </c>
+      <c r="J9" s="5">
+        <f>1.3*H9</f>
+        <v>28.6</v>
+      </c>
+      <c r="K9" s="4">
         <v>2100</v>
       </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
         <v>0.8</v>
       </c>
-      <c r="N9" s="3">
-        <v>8</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>450</v>
       </c>
-      <c r="P9" s="20">
+      <c r="R9" s="20">
         <v>0.02</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="S9" s="7">
         <v>2</v>
       </c>
-      <c r="R9" s="9">
+      <c r="T9" s="9">
         <v>100</v>
       </c>
-      <c r="S9" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T9" s="9">
+      <c r="U9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="V9" s="9">
         <v>0.5</v>
       </c>
-      <c r="U9" s="9">
+      <c r="W9" s="9">
         <v>0.3</v>
       </c>
-      <c r="V9" s="9">
+      <c r="X9" s="9">
         <v>0.2</v>
       </c>
-      <c r="W9" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X9" s="9">
-        <v>0.01</v>
-      </c>
       <c r="Y9" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AA9" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z9" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="7">
+      <c r="AB9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AD9" s="9">
         <v>100</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AE9" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD9" s="9">
+      <c r="AF9" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AG9" s="9">
         <v>0.3</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AH9" s="9">
         <v>0.1</v>
       </c>
-      <c r="AG9" s="9">
-        <f t="shared" si="1"/>
+      <c r="AI9" s="9">
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AH9" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AI9" s="9">
+      <c r="AJ9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AK9" s="9">
         <v>0.25</v>
       </c>
-      <c r="AJ9" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="12">
+      <c r="AL9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="12">
         <v>1865</v>
       </c>
-      <c r="AL9" s="12">
-        <v>2021</v>
-      </c>
-      <c r="AM9" s="13">
+      <c r="AN9" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AO9" s="13">
         <v>0.6</v>
       </c>
-      <c r="AN9" s="13">
+      <c r="AP9" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO9" s="13">
+      <c r="AQ9" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP9" s="10">
+      <c r="AR9" s="10">
         <v>0</v>
       </c>
-      <c r="AQ9" s="10">
+      <c r="AS9" s="10">
         <v>150</v>
       </c>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="11"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="11"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1918,117 +1989,123 @@
       <c r="H10" s="5">
         <v>16</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
+        <v>16</v>
+      </c>
+      <c r="J10" s="5">
+        <v>21</v>
+      </c>
+      <c r="K10" s="4">
         <v>950</v>
       </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
         <v>110</v>
       </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
       <c r="N10" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>450</v>
       </c>
-      <c r="P10" s="20">
+      <c r="R10" s="20">
         <v>0.02</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="S10" s="7">
         <v>2</v>
       </c>
-      <c r="R10" s="9">
+      <c r="T10" s="9">
         <v>100</v>
       </c>
-      <c r="S10" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T10" s="9">
+      <c r="U10" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="V10" s="9">
         <v>0.5</v>
       </c>
-      <c r="U10" s="9">
+      <c r="W10" s="9">
         <v>0.3</v>
       </c>
-      <c r="V10" s="9">
+      <c r="X10" s="9">
         <v>0.2</v>
       </c>
-      <c r="W10" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X10" s="9">
-        <v>0.01</v>
-      </c>
       <c r="Y10" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AA10" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z10" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="7">
+      <c r="AB10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AD10" s="9">
         <v>100</v>
       </c>
-      <c r="AC10" s="9">
+      <c r="AE10" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD10" s="9">
+      <c r="AF10" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE10" s="9">
+      <c r="AG10" s="9">
         <v>0.3</v>
       </c>
-      <c r="AF10" s="9">
+      <c r="AH10" s="9">
         <v>0.1</v>
       </c>
-      <c r="AG10" s="9">
-        <f t="shared" si="1"/>
+      <c r="AI10" s="9">
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AH10" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AI10" s="9">
+      <c r="AJ10" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AK10" s="9">
         <v>0.25</v>
       </c>
-      <c r="AJ10" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="12">
+      <c r="AL10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="12">
         <v>1865</v>
       </c>
-      <c r="AL10" s="12">
-        <v>2021</v>
-      </c>
-      <c r="AM10" s="13">
+      <c r="AN10" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AO10" s="13">
         <v>0.6</v>
       </c>
-      <c r="AN10" s="13">
+      <c r="AP10" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO10" s="13">
+      <c r="AQ10" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP10" s="10">
+      <c r="AR10" s="10">
         <v>0</v>
       </c>
-      <c r="AQ10" s="10">
+      <c r="AS10" s="10">
         <v>150</v>
       </c>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="11"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="11"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -2053,117 +2130,124 @@
       <c r="H11" s="5">
         <v>6</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
+        <v>6</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="K11" s="4">
         <v>900</v>
       </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
         <v>200</v>
       </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
         <v>0.95</v>
       </c>
-      <c r="N11" s="3">
-        <v>8</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="3">
         <v>450</v>
       </c>
-      <c r="P11" s="20">
+      <c r="R11" s="20">
         <v>0.02</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="S11" s="7">
         <v>2</v>
       </c>
-      <c r="R11" s="9">
+      <c r="T11" s="9">
         <v>100</v>
       </c>
-      <c r="S11" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T11" s="9">
+      <c r="U11" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="V11" s="9">
         <v>0.5</v>
       </c>
-      <c r="U11" s="9">
+      <c r="W11" s="9">
         <v>0.3</v>
       </c>
-      <c r="V11" s="9">
+      <c r="X11" s="9">
         <v>0.2</v>
       </c>
-      <c r="W11" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X11" s="9">
-        <v>0.01</v>
-      </c>
       <c r="Y11" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AA11" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z11" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="7">
+      <c r="AB11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AD11" s="9">
         <v>100</v>
       </c>
-      <c r="AC11" s="9">
+      <c r="AE11" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AF11" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE11" s="9">
+      <c r="AG11" s="9">
         <v>0.3</v>
       </c>
-      <c r="AF11" s="9">
+      <c r="AH11" s="9">
         <v>0.1</v>
       </c>
-      <c r="AG11" s="9">
-        <f t="shared" si="1"/>
+      <c r="AI11" s="9">
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AH11" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AI11" s="9">
+      <c r="AJ11" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AK11" s="9">
         <v>0.25</v>
       </c>
-      <c r="AJ11" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="12">
+      <c r="AL11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="12">
         <v>1865</v>
       </c>
-      <c r="AL11" s="12">
-        <v>2021</v>
-      </c>
-      <c r="AM11" s="13">
+      <c r="AN11" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AO11" s="13">
         <v>0.6</v>
       </c>
-      <c r="AN11" s="13">
+      <c r="AP11" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO11" s="13">
+      <c r="AQ11" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP11" s="10">
+      <c r="AR11" s="10">
         <v>0</v>
       </c>
-      <c r="AQ11" s="10">
+      <c r="AS11" s="10">
         <v>150</v>
       </c>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="11"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="11"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
@@ -2188,117 +2272,124 @@
       <c r="H12" s="5">
         <v>7</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
+        <v>7</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="K12" s="4">
         <v>900</v>
       </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
         <v>0.35</v>
       </c>
-      <c r="N12" s="3">
-        <v>8</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
         <v>450</v>
       </c>
-      <c r="P12" s="20">
+      <c r="R12" s="20">
         <v>0.02</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="S12" s="7">
         <v>2</v>
       </c>
-      <c r="R12" s="9">
+      <c r="T12" s="9">
         <v>100</v>
       </c>
-      <c r="S12" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T12" s="9">
+      <c r="U12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="V12" s="9">
         <v>0.5</v>
       </c>
-      <c r="U12" s="9">
+      <c r="W12" s="9">
         <v>0.3</v>
       </c>
-      <c r="V12" s="9">
+      <c r="X12" s="9">
         <v>0.2</v>
       </c>
-      <c r="W12" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X12" s="9">
-        <v>0.01</v>
-      </c>
       <c r="Y12" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AA12" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z12" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="7">
+      <c r="AB12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AD12" s="9">
         <v>100</v>
       </c>
-      <c r="AC12" s="9">
+      <c r="AE12" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD12" s="9">
+      <c r="AF12" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE12" s="9">
+      <c r="AG12" s="9">
         <v>0.3</v>
       </c>
-      <c r="AF12" s="9">
+      <c r="AH12" s="9">
         <v>0.1</v>
       </c>
-      <c r="AG12" s="9">
-        <f t="shared" si="1"/>
+      <c r="AI12" s="9">
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AH12" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AI12" s="9">
+      <c r="AJ12" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AK12" s="9">
         <v>0.25</v>
       </c>
-      <c r="AJ12" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="12">
+      <c r="AL12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="12">
         <v>1865</v>
       </c>
-      <c r="AL12" s="12">
-        <v>2021</v>
-      </c>
-      <c r="AM12" s="13">
+      <c r="AN12" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AO12" s="13">
         <v>0.6</v>
       </c>
-      <c r="AN12" s="13">
+      <c r="AP12" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO12" s="13">
+      <c r="AQ12" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP12" s="10">
+      <c r="AR12" s="10">
         <v>0</v>
       </c>
-      <c r="AQ12" s="10">
+      <c r="AS12" s="10">
         <v>150</v>
       </c>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="11"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="11"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
@@ -2323,117 +2414,124 @@
       <c r="H13" s="5">
         <v>15</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
+        <v>15</v>
+      </c>
+      <c r="J13" s="5">
+        <f>1.35*H13</f>
+        <v>20.25</v>
+      </c>
+      <c r="K13" s="4">
         <v>2200</v>
       </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
         <v>150</v>
       </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
         <v>0.95</v>
       </c>
-      <c r="N13" s="3">
-        <v>8</v>
-      </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="3">
         <v>450</v>
       </c>
-      <c r="P13" s="20">
+      <c r="R13" s="20">
         <v>0.02</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="S13" s="7">
         <v>2</v>
       </c>
-      <c r="R13" s="9">
+      <c r="T13" s="9">
         <v>100</v>
       </c>
-      <c r="S13" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T13" s="9">
+      <c r="U13" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="V13" s="9">
         <v>0.5</v>
       </c>
-      <c r="U13" s="9">
+      <c r="W13" s="9">
         <v>0.3</v>
       </c>
-      <c r="V13" s="9">
+      <c r="X13" s="9">
         <v>0.2</v>
       </c>
-      <c r="W13" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X13" s="9">
-        <v>0.01</v>
-      </c>
       <c r="Y13" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AA13" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z13" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="7">
+      <c r="AB13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AD13" s="9">
         <v>100</v>
       </c>
-      <c r="AC13" s="9">
+      <c r="AE13" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD13" s="9">
+      <c r="AF13" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE13" s="9">
+      <c r="AG13" s="9">
         <v>0.3</v>
       </c>
-      <c r="AF13" s="9">
+      <c r="AH13" s="9">
         <v>0.1</v>
       </c>
-      <c r="AG13" s="9">
-        <f t="shared" si="1"/>
+      <c r="AI13" s="9">
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AH13" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AI13" s="9">
+      <c r="AJ13" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AK13" s="9">
         <v>0.25</v>
       </c>
-      <c r="AJ13" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="12">
+      <c r="AL13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="12">
         <v>1865</v>
       </c>
-      <c r="AL13" s="12">
-        <v>2021</v>
-      </c>
-      <c r="AM13" s="13">
+      <c r="AN13" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AO13" s="13">
         <v>0.6</v>
       </c>
-      <c r="AN13" s="13">
+      <c r="AP13" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO13" s="13">
+      <c r="AQ13" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP13" s="10">
+      <c r="AR13" s="10">
         <v>0</v>
       </c>
-      <c r="AQ13" s="10">
+      <c r="AS13" s="10">
         <v>150</v>
       </c>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="11"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="11"/>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
@@ -2458,117 +2556,124 @@
       <c r="H14" s="5">
         <v>15</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="5">
+        <v>15</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K14" s="4">
         <v>900</v>
       </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
         <v>125</v>
       </c>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1</v>
-      </c>
       <c r="N14" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>450</v>
       </c>
-      <c r="P14" s="20">
+      <c r="R14" s="20">
         <v>0.02</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="S14" s="7">
         <v>2</v>
       </c>
-      <c r="R14" s="9">
+      <c r="T14" s="9">
         <v>100</v>
       </c>
-      <c r="S14" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T14" s="9">
+      <c r="U14" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="V14" s="9">
         <v>0.5</v>
       </c>
-      <c r="U14" s="9">
+      <c r="W14" s="9">
         <v>0.3</v>
       </c>
-      <c r="V14" s="9">
+      <c r="X14" s="9">
         <v>0.2</v>
       </c>
-      <c r="W14" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X14" s="9">
-        <v>0.01</v>
-      </c>
       <c r="Y14" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AA14" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z14" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="7">
+      <c r="AB14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AD14" s="9">
         <v>100</v>
       </c>
-      <c r="AC14" s="9">
+      <c r="AE14" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD14" s="9">
+      <c r="AF14" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE14" s="9">
+      <c r="AG14" s="9">
         <v>0.3</v>
       </c>
-      <c r="AF14" s="9">
+      <c r="AH14" s="9">
         <v>0.1</v>
       </c>
-      <c r="AG14" s="9">
-        <f t="shared" si="1"/>
+      <c r="AI14" s="9">
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AH14" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AI14" s="9">
+      <c r="AJ14" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AK14" s="9">
         <v>0.25</v>
       </c>
-      <c r="AJ14" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="12">
+      <c r="AL14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="12">
         <v>1865</v>
       </c>
-      <c r="AL14" s="12">
-        <v>2021</v>
-      </c>
-      <c r="AM14" s="13">
+      <c r="AN14" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AO14" s="13">
         <v>0.6</v>
       </c>
-      <c r="AN14" s="13">
+      <c r="AP14" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO14" s="13">
+      <c r="AQ14" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP14" s="10">
+      <c r="AR14" s="10">
         <v>0</v>
       </c>
-      <c r="AQ14" s="10">
+      <c r="AS14" s="10">
         <v>150</v>
       </c>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="11"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="11"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
@@ -2593,117 +2698,124 @@
       <c r="H15" s="5">
         <v>12</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
+        <v>12</v>
+      </c>
+      <c r="J15" s="5">
+        <f>1.5*H15</f>
+        <v>18</v>
+      </c>
+      <c r="K15" s="4">
         <v>2200</v>
       </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
         <v>0.95</v>
       </c>
-      <c r="N15" s="3">
-        <v>8</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>450</v>
       </c>
-      <c r="P15" s="20">
+      <c r="R15" s="20">
         <v>0.02</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="S15" s="7">
         <v>2</v>
       </c>
-      <c r="R15" s="9">
+      <c r="T15" s="9">
         <v>100</v>
       </c>
-      <c r="S15" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T15" s="9">
+      <c r="U15" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="V15" s="9">
         <v>0.5</v>
       </c>
-      <c r="U15" s="9">
+      <c r="W15" s="9">
         <v>0.3</v>
       </c>
-      <c r="V15" s="9">
+      <c r="X15" s="9">
         <v>0.2</v>
       </c>
-      <c r="W15" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X15" s="9">
-        <v>0.01</v>
-      </c>
       <c r="Y15" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AA15" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z15" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="7">
+      <c r="AB15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB15" s="9">
+      <c r="AD15" s="9">
         <v>100</v>
       </c>
-      <c r="AC15" s="9">
+      <c r="AE15" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD15" s="9">
+      <c r="AF15" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE15" s="9">
+      <c r="AG15" s="9">
         <v>0.3</v>
       </c>
-      <c r="AF15" s="9">
+      <c r="AH15" s="9">
         <v>0.1</v>
       </c>
-      <c r="AG15" s="9">
-        <f t="shared" si="1"/>
+      <c r="AI15" s="9">
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AH15" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AI15" s="9">
+      <c r="AJ15" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AK15" s="9">
         <v>0.25</v>
       </c>
-      <c r="AJ15" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="12">
+      <c r="AL15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="12">
         <v>1865</v>
       </c>
-      <c r="AL15" s="12">
-        <v>2021</v>
-      </c>
-      <c r="AM15" s="13">
+      <c r="AN15" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AO15" s="13">
         <v>0.6</v>
       </c>
-      <c r="AN15" s="13">
+      <c r="AP15" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO15" s="13">
+      <c r="AQ15" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP15" s="10">
+      <c r="AR15" s="10">
         <v>0</v>
       </c>
-      <c r="AQ15" s="10">
+      <c r="AS15" s="10">
         <v>150</v>
       </c>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="11"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="11"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
@@ -2728,117 +2840,125 @@
       <c r="H16" s="5">
         <v>19</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
+        <f>1.18*H16</f>
+        <v>22.419999999999998</v>
+      </c>
+      <c r="J16" s="5">
+        <f>1.25*H16</f>
+        <v>23.75</v>
+      </c>
+      <c r="K16" s="4">
         <v>1800</v>
       </c>
-      <c r="J16" s="4">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
         <v>125</v>
       </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
         <v>0.95</v>
       </c>
-      <c r="N16" s="3">
-        <v>8</v>
-      </c>
-      <c r="O16" s="3">
+      <c r="P16" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="3">
         <v>450</v>
       </c>
-      <c r="P16" s="20">
+      <c r="R16" s="20">
         <v>0.02</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="S16" s="7">
         <v>2</v>
       </c>
-      <c r="R16" s="9">
+      <c r="T16" s="9">
         <v>100</v>
       </c>
-      <c r="S16" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T16" s="9">
+      <c r="U16" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="V16" s="9">
         <v>0.5</v>
       </c>
-      <c r="U16" s="9">
+      <c r="W16" s="9">
         <v>0.3</v>
       </c>
-      <c r="V16" s="9">
+      <c r="X16" s="9">
         <v>0.2</v>
       </c>
-      <c r="W16" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X16" s="9">
-        <v>0.01</v>
-      </c>
       <c r="Y16" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AA16" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z16" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="7">
+      <c r="AB16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB16" s="9">
+      <c r="AD16" s="9">
         <v>100</v>
       </c>
-      <c r="AC16" s="9">
+      <c r="AE16" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD16" s="9">
+      <c r="AF16" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE16" s="9">
+      <c r="AG16" s="9">
         <v>0.3</v>
       </c>
-      <c r="AF16" s="9">
+      <c r="AH16" s="9">
         <v>0.1</v>
       </c>
-      <c r="AG16" s="9">
-        <f t="shared" si="1"/>
+      <c r="AI16" s="9">
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AH16" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AI16" s="9">
+      <c r="AJ16" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AK16" s="9">
         <v>0.25</v>
       </c>
-      <c r="AJ16" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="12">
+      <c r="AL16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="12">
         <v>1865</v>
       </c>
-      <c r="AL16" s="12">
-        <v>2021</v>
-      </c>
-      <c r="AM16" s="13">
+      <c r="AN16" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AO16" s="13">
         <v>0.6</v>
       </c>
-      <c r="AN16" s="13">
+      <c r="AP16" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO16" s="13">
+      <c r="AQ16" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP16" s="10">
+      <c r="AR16" s="10">
         <v>0</v>
       </c>
-      <c r="AQ16" s="10">
+      <c r="AS16" s="10">
         <v>150</v>
       </c>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="11"/>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="11"/>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
@@ -2863,184 +2983,223 @@
       <c r="H17" s="5">
         <v>12</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
+        <v>12</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="0"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K17" s="4">
         <v>1900</v>
       </c>
-      <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
         <v>150</v>
       </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
         <v>0.95</v>
       </c>
-      <c r="N17" s="3">
-        <v>8</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>450</v>
       </c>
-      <c r="P17" s="20">
+      <c r="R17" s="20">
         <v>0.02</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="S17" s="7">
         <v>2</v>
       </c>
-      <c r="R17" s="9">
+      <c r="T17" s="9">
         <v>100</v>
       </c>
-      <c r="S17" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="T17" s="9">
+      <c r="U17" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="V17" s="9">
         <v>0.5</v>
       </c>
-      <c r="U17" s="9">
+      <c r="W17" s="9">
         <v>0.3</v>
       </c>
-      <c r="V17" s="9">
+      <c r="X17" s="9">
         <v>0.2</v>
       </c>
-      <c r="W17" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X17" s="9">
-        <v>0.01</v>
-      </c>
       <c r="Y17" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AA17" s="9">
         <v>0.25</v>
       </c>
-      <c r="Z17" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="7">
+      <c r="AB17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB17" s="9">
+      <c r="AD17" s="9">
         <v>100</v>
       </c>
-      <c r="AC17" s="9">
+      <c r="AE17" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD17" s="9">
+      <c r="AF17" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE17" s="9">
+      <c r="AG17" s="9">
         <v>0.3</v>
       </c>
-      <c r="AF17" s="9">
+      <c r="AH17" s="9">
         <v>0.1</v>
       </c>
-      <c r="AG17" s="9">
-        <f t="shared" si="1"/>
+      <c r="AI17" s="9">
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AH17" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AI17" s="9">
+      <c r="AJ17" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AK17" s="9">
         <v>0.25</v>
       </c>
-      <c r="AJ17" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="12">
+      <c r="AL17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="12">
         <v>1865</v>
       </c>
-      <c r="AL17" s="12">
-        <v>2021</v>
-      </c>
-      <c r="AM17" s="13">
+      <c r="AN17" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AO17" s="13">
         <v>0.6</v>
       </c>
-      <c r="AN17" s="13">
+      <c r="AP17" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AO17" s="13">
+      <c r="AQ17" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP17" s="10">
+      <c r="AR17" s="10">
         <v>0</v>
       </c>
-      <c r="AQ17" s="10">
+      <c r="AS17" s="10">
         <v>150</v>
       </c>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="11"/>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="11"/>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L17">
     <sortCondition ref="A2:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
